--- a/result/生词本导入模版_1.xlsx
+++ b/result/生词本导入模版_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>inanimate</t>
+          <t>inane</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
+          <t>adj. 空洞的： lacking significance, meaning, or point</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
+          <t>inane comments  空洞的评论</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,67 +570,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>inanimate</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>inaugurate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>vt. 使就职： to induct into an office by a formal ceremony
 vt. 开始： to cause to begin, especially officially or formally</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>A new leader will be inaugurated soon.   新的领导即将就职
 inaugurate a new immigration policy  实施新的移民政策</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>incandescent</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. 明亮灿烂的： strikingly bright, radiant, or clear
 adj. 热情饱满的： characterized by glowing zeal</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>incandescent light bulbs  明亮的灯泡
 It makes me incandescent with fury.   它让我愤怒不已</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>incantation</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -640,91 +640,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>incantation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>incarnate</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 化身的，人体化的： invested with bodily nature and form
 v. （思想、理论的）具化，体现： to constitute an embodiment or type of</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>He referred to her as devil incarnate.   他把她视作恶魔的化身
 the general view that Hitler incarnated extreme egotism  通常认为希特勒代表了极端的以自我为中心</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>incendiary</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 煽动者： a person who stirs up public feelings especially of discontent
 adj. 煽动性的： tending to inflame</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>behind-the-scenes incendiaries who were intending to overthrow the government  企图推翻政府的幕后煽动者
 an incendiary speech  煽动性的演说</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>incense</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 芳香： a sweet or pleasant smell
 vt. 激怒： to cause to be extremely angry</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the heavenly incense of spring flowers  春天花朵发出的美妙芳香
 This proposal will certainly incense female activists.  这个提案肯定会激怒女权主义者</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>inception</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>n. 开端，开始： an act, process, or instance of beginning</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -734,17 +734,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>incessant</t>
+          <t>inception</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 无间断的：continuing or following without interruption</t>
+          <t>n. 开端，开始： an act, process, or instance of beginning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
+          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -756,68 +756,68 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>incessant</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adj. 无间断的：continuing or following without interruption</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>inch</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>n. 少量，很短的距离： a very small distance or degree
 v. 慢慢移动： to move or cause to move slowly or by small degrees</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>give them aninch, and they'll take a mile  得寸进尺
 Inch by inch, we're making progress toward ourfund-raising goal.   我们在慢慢地接近筹款的目标
 The car inched carefully across the snow-covered bridge.   汽车慢慢地通过被大雪覆盖的桥梁</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>inchoate</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>adj. 新生的： in an initial or early stage
 adj. 未完全成型的： imperfectly formed or developed</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>inchoate feelings of affection for a man  刚刚产生的好感
 a vague, inchoate notion  模糊而不成形的想法</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>incinerate</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -827,17 +827,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>incipient</t>
+          <t>incinerate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
+          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
+          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -849,17 +849,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>incite</t>
+          <t>incipient</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to provoke and urge on</t>
+          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inciting workers to strike  煽动工人罢工</t>
+          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -871,17 +871,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>inclement</t>
+          <t>incite</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. （天气等）恶劣的： lacking mildness</t>
+          <t>vt. 煽动，激起： to provoke and urge on</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inclement weather conditions  恶劣的气象条件</t>
+          <t>inciting workers to strike  煽动工人罢工</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -893,17 +893,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>incogitant</t>
+          <t>inclement</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
+          <t>adj. （天气等）恶劣的： lacking mildness</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
+          <t>inclement weather conditions  恶劣的气象条件</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -915,17 +915,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>incogitant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
+          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Two triangles are incongruent.   两个三角形不全等。</t>
+          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -937,43 +937,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Two triangles are incongruent.   两个三角形不全等。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>inconsequential</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 不合逻辑的： not using or following good reasoning
 adj. 不重要的： of no significance</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>an inconsequential line of argument  不合逻辑的论述
 That's an inconsequential problem compared to the other issues.  和其他问题相比，这就是个无关痛痒的小事</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>incontrovertible</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>adj. 无可争议的： not open to question</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>incontrovertible facts  无可非议的事实</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -983,19 +983,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>incorrigible</t>
+          <t>incontrovertible</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. 不可救药的，积习难改的： incapable of being corrected or amended
-adj. 无法管制的： difficult or impossible to control or manage</t>
+          <t>adj. 无可争议的： not open to question</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>an incorrigible criminal deserving death penalty  一个应该被判死刑的恶习难改的罪犯
-an incorrigible, spoiled child  被宠坏了的难管的孩子</t>
+          <t>incontrovertible facts  无可非议的事实</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1007,19 +1005,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>incriminate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>incriminate innocent people  诬陷好人</t>
-        </is>
-      </c>
+          <t>incorrigible</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1029,39 +1019,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>incriminate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>incriminate innocent people  诬陷好人</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>incubate</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 孵化： to cover and warm eggs as the young inside develop
 vt. 帮助，培养，促进： to cause or aid the development of</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>The hen incubated her eggs for two weeks.  母鸡孵蛋两周
 Hopefully, these youthful visits to the museum will incubate an enduring love of art.  我 们 希 望 年 轻 时参观博物馆能够培养他们对于艺术的持久热爱</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>inculpate</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>vt.归罪于： incriminate</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1071,19 +1065,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>incursion</t>
+          <t>inculpate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>n.入侵： a hostile entrance into a territory</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
-        </is>
-      </c>
+          <t>vt.归罪于： incriminate</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1093,43 +1083,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>incursion</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n.入侵： a hostile entrance into a territory</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>indelible</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>adj. （印记等）无法擦除的： impossible to remove, erase, or wash away
 adj. 无法忘怀的： not easily forgotten</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>indelible ink  难以擦拭的墨水
 most indelible experiences  最难以磨灭的经历</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>indemnity</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1139,17 +1129,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>indict</t>
+          <t>indemnity</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
+          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
+          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1161,43 +1151,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>indict</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>indigenous</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>adj. 土产的，本地的： originating and living or occurring naturally in an area or environment
 adj. 与生俱来的，先天的： being a part of the innermost nature of a person or thing</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>the culture of the indigenous people of that country  那个国家原著民的文化
 The drive to create is indigenous to humanity.   人类创造的动力是与生俱来的</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>indigent</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>adj. 贫穷的： lacking money or material possessions</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1207,17 +1197,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>indispensable</t>
+          <t>indigent</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
+          <t>adj. 贫穷的： lacking money or material possessions</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
+          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1229,17 +1219,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>indoctrinate</t>
+          <t>indispensable</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
+          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
+          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1251,17 +1241,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>indolent</t>
+          <t>indoctrinate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
+          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
+          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1273,43 +1263,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>indolent</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>inducement</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>n. 动机，刺激源： a motive or consideration that leads one to action
 n.劝说，游说： the act of reasoning or pleading with someone to accept a belief or course of action</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>offered an expensive watch as an inducement to ratify the proposal  赠送名贵手表以求计划得到批准
 He gave up smoking only after a prolonged inducement by all the other family members.  在 所 有 家 庭成员坚持不懈的劝说之下，他终于愿意戒烟了</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>indulgent</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>indulgent aristocrats  生活放纵的贵族</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1319,45 +1309,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>indulgent</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>indulgent aristocrats  生活放纵的贵族</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>indurate</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 铁石心肠的，冷酷无情的： having or showing a lack of sympathy or tender feelings
 vt. 使变硬： to become physically firm or solid
 vt. 使习惯于：使习惯于，如艰苦或尴尬之境况： to make able to withstand physical hardship, strain,or exposure</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>an indurate heart that admits no love or mercy  一颗不认可爱或仁慈的冷酷心灵
 Great heat indurates clay.   高温使黏土变硬
 Such a brutal upbringing could only callous his soul and indurate his heart to the suffering of others.   这样一种残暴的培养方式只会让他的灵魂变得麻木，让他的心灵对于他人所受的折磨无动于衷</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>industrious</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1367,17 +1357,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ineffable</t>
+          <t>industrious</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 难以表达的： incapable of being expressed</t>
+          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
+          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1389,17 +1379,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ineluctable</t>
+          <t>ineffable</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
+          <t>adj. 难以表达的： incapable of being expressed</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
+          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1411,44 +1401,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>ineluctable</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>inept</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj.愚笨的，荒谬的： displaying a lack of judgment, sense, or reason
 adj.不恰当的，不合时宜的： not appropriate for a particular occasion or situation
 adj. 不称职的，无能力的： generally incompetent</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>an inept and irresponsible remark on his paper  对他文章的荒谬而不负责任的评论
 a hopelessly inept defense attorney  严重不靠谱的辩护律师</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>inert</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>inert ingredients in drugs  药品中的惰性成分</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1458,17 +1448,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>inevitable</t>
+          <t>inert</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
+          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
+          <t>inert ingredients in drugs  药品中的惰性成分</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1480,17 +1470,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>inexorable</t>
+          <t>inevitable</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
+          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
+          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1502,17 +1492,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>infamous</t>
+          <t>inexorable</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
+          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
+          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1524,17 +1514,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>infatuate</t>
+          <t>infamous</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
+          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
+          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1546,43 +1536,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>infatuate</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>inferno</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>n. 大火： an intense fire
 n. 地狱： a place or a state that resembles or suggests hell</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A raging inferno posed a serious threat to the downwind villages.  肆虐的大火给下风向的村庄带来了严重的威胁
 the inferno of war  地狱般的战场</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>infiltrate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1592,17 +1582,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>infinite</t>
+          <t>infiltrate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
+          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the idea of an infinite universe  无限宇宙的概念</t>
+          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1614,19 +1604,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>infirm</t>
+          <t>infinite</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 虚弱的： weak in body, especially from old age or disease
-adj. 不果断的，优柔寡断的： lacking firmness of will, character, or purpose</t>
+          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫
-She has little patience with the “infirm of purpose”.   她对那些优柔寡断的人没什么耐心</t>
+          <t>the idea of an infinite universe  无限宇宙的概念</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1638,67 +1626,67 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>infirm</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adj. 虚弱的： weak in body, especially from old age or disease</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>inflame</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>v. 点燃： to set on fire
 v. 使加剧：to make more violent</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A carelessly tossed cigarette inflamed the papers in the trash can.  一只被随意丢弃的香烟点燃了垃圾桶中的纸
 Retaliation served only to inflame the feud.  冤冤相报何时了</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>infelicitous</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>adj. 不愉快的，不幸的： not happy; unfortunate
 adj. 不适当的，不合时宜的： not appropriate or well-timed</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>an infelicitous moment  不幸的时刻
 made a very infelicitous remark  做出极不恰当的评价</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>influx</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. 涌入： a coming in</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1708,43 +1696,43 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>influx</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n. 涌入： a coming in</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>infuse</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>vt. 灌输，使…充满： to fill or cause to be filled with something
 vt. 鼓舞： inspire, animate</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>New members infused enthusiasm into the club.   新队员为俱乐部注入了激情
 a sense of purpose that infuses scientific researchers  给科学研究者打鸡血一般的使命感</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>infuriate</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>vt. 激怒： to make furious</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1754,17 +1742,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ingenious</t>
+          <t>infuriate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
+          <t>vt. 激怒： to make furious</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
+          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1776,17 +1764,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ingenuity</t>
+          <t>ingenious</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 独创性，创新性： inventive skill or imagination</t>
+          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
+          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1798,43 +1786,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. 独创性，创新性： inventive skill or imagination</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>ingenuous</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 天真淳朴的： lacking in cunning, guile, or worldliness
 adj. 坦白的： openly straightforward or frank</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Photographs captured the ingenuous smiles of young children at play.  摄影家捕捉到了演出中孩子们天真无邪的笑脸
 her ingenuous thirst for knowledge  她对知识毫不掩饰的渴望</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ingest</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1844,17 +1832,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ingrained</t>
+          <t>ingest</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
+          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
+          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1866,43 +1854,43 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>ingrained</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>ingratiating</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>adj. 讨人喜欢的： capable of winning favor
 adj. 逢迎的，意在奉承的： intended or adopted in order to gain favor</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>They adopted the orphan who had a most ingratiating smile.  他们收养了那名有着最惹人喜欢的笑容的孤儿
 an repulsive ingratiating smile  令人反感的阿谀奉承的微笑</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>inherent</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>a disposition inherent in human nature  人性内在的倾向</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1912,43 +1900,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>inherent</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>a disposition inherent in human nature  人性内在的倾向</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>inimical</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>adj. 带有敌意的： reflecting or indicating hostility
 adj. 危及某人利益的，不利的： opposed to one's interests</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">a cold, inimical voice  冰冷而不友好的声音
 Laws were designed to enhance national security but some regard as inimical to cherished freedoms.  </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>inimitable</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>her own inimitable style  她特立独行的作风</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1958,17 +1946,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>iniquity</t>
+          <t>inimitable</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. 邪恶，不公正： gross immorality or injustice</t>
+          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
+          <t>her own inimitable style  她特立独行的作风</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1980,90 +1968,90 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>iniquity</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>n. 邪恶，不公正： gross immorality or injustice</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>initiate</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>vt. 创始，发动促进： to cause or facilitate the beginning of
 n. 刚入门的新手： a person who is undergoing or has undergone an initiation</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>a chain reaction initiated by UV irradiation  紫外光激发引起的连锁反应</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>inkling</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>n. 轻微暗示，小提示： a slight indication or suggestion
 n. 略知： a slight knowledge or vague notion</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>They hadn't given us an inkling of what was going to happen.  他们不给我们任何暗示将会发生什么
 not have even the faintest inkling of what the project was all about  对这个项目与什么有关毫不知情</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>innocuous</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>adj. 无害的： producing no injury
 adj. 乏味的，不会引起敌意的： not likely to give offense or to arouse strong feelings or hostility</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>The government enacted a more strict regulation on innocuous preservatives.   政府对无害防腐剂制定了更为严格的规定
 He made an innocuous remark to avoid conflict.  为了避免冲突，他做了一个中庸的评价</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>inquisitive</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2073,160 +2061,160 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>innovative</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 创新性的： characterized by, tending to, or introducing innovations</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>an innovative macro-economic strategy  创新性的宏观经济战略</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>inquisitive</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>insensible</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 无知觉的： having lost consciousness, especially temporarily
 adj. 漠不关心的： not emotionally responsive
 adj. 粗俗的，没品味的： lacking in refinement or good taste</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>The security guard was knocked insensible by a sudden blow.   保安被突如其来的一击敲晕了
 insensible to workers’ requests  对工人的要求无动于衷
 She married an insensible brute upon whom the niceties of life were completely lost.  她嫁给了一个毫无品味的凡夫俗子，从此她的生活再无任何情趣</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>insensitive</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>adj. 缺乏机智圆滑的，缺乏社交技巧的： lacking tact
 adj. 不敏感的，麻木的： not responsive or susceptible</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>so insensitive as to laugh at someone in pain  如此缺乏社交技巧以至于嘲笑处于悲痛中的人
 insensitive to either criticism or commendation  对批评和表扬都不在乎</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>insentient</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>adj. 无感觉，无知觉的： lacking perception, consciousness, or animation
 adj. 一知半解的，略懂的： not having or showing a deep understanding of something</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>He refused to believe that the universe as we know it evolved from the random interactions of insentientparticles of matter.  他拒绝相信我们所知的宇宙是经由无生命的粒子间的相互作用演化而来的</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>insight</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>n. 深刻的理解： an instance of apprehending the true nature of a thing, especially through intuitiveunderstanding</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>an insight into the global-scale environmental problems  对于全球性环境问题的深刻理解</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>insipid</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. （食品）清淡无味的： lacking flavor or zest; not tasty
 adj. 平淡的，无聊的： lacking in qualities that interest, stimulate, or challenge</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>a rather insipid soup  味道清淡的汤
 an insipid story of the prince and the princess  一个关于王子和公主的无聊故事</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>insolent</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>insouciant</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>an insouciant shrug  无所谓地耸耸肩</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2236,17 +2224,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>instate</t>
+          <t>insolent</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vt. 任命： to set or establish in a rank or office</t>
+          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
+          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2258,17 +2246,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>instigate</t>
+          <t>insouciant</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
+          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
+          <t>an insouciant shrug  无所谓地耸耸肩</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2280,89 +2268,89 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>instate</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>vt. 任命： to set or establish in a rank or office</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>instigate</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>instill</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>v. 慢慢滴入： to cause to enter drop by drop
 v. 灌输： to impart gradually</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>instill medication into the infected eye  将药物滴入患者受感染的眼中
 instill a sense of responsibility to the young  向年轻人灌输一种责任感</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>institute</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. 创立，制定： to establish, organize, and set in operation
 n. 机构： an organization for the promotion of a cause</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>institute a new department  创建一个新的部门
 a research institute  研究机构</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>insubordinate</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>adj. 不服从权威的： not submissiveto authority</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>insular</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2372,17 +2360,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>insulate</t>
+          <t>insubordinate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
+          <t>adj. 不服从权威的： not submissiveto authority</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
+          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2394,17 +2382,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>insurgent</t>
+          <t>insular</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
+          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
+          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2416,17 +2404,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>intangible</t>
+          <t>insulate</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
+          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>intangible value of a good reputation  良好声誉的无形价值</t>
+          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2438,67 +2426,65 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>insurgent</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>intangible</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>intangible value of a good reputation  良好声誉的无形价值</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>integral</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 构成整体所必需的： essential to completeness
 adj. 完整的： not lacking any part or member that properly belongs to it</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>an integral part of the undergraduate curriculum  本科生课程的必修部分
 the belief that athletics are essential to an integral life  坚信运动是完整的人生所不可或缺的一部分</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>integrity</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth
-n. 完整性： the quality or condition of being whole or undivided</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-trying to maintain the integrity of the falling empire  尽力维持日趋西山的帝国的统一</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>intelligible</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>adj. 可理解的： capable of being understood</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2508,17 +2494,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>intemperate</t>
+          <t>integrity</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
+          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
+          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2530,17 +2516,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>intelligible</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 加强，激化： to make intense or more intensive</t>
+          <t>adj. 可理解的： capable of being understood</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
+          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2552,17 +2538,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>inter</t>
+          <t>intemperate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vt. 埋葬： to place in a grave or tomb</t>
+          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
+          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2574,17 +2560,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>intercessor</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 调停者： one that mediates</t>
+          <t>vt. 加强，激化： to make intense or more intensive</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
+          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2596,19 +2582,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>interdict</t>
+          <t>inter</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vt. 禁止： to forbid in a usually formal or authoritative manner
-vt. 阻止： to stop, seize, or interrupt while in progress or on course</t>
+          <t>vt. 埋葬： to place in a grave or tomb</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的
-Federal agents are able to interdict only a small percentage of the narcotic shipments into the country.  </t>
+          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2620,65 +2604,65 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>intercessor</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>n. 调停者： one that mediates</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>interdict</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>vt. 禁止： to forbid in a usually formal or authoritative manner</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>interim</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n. 中间过渡时期，间隔： an interval of time between one event, process, or period and another
 adj. 暂时的： serving in a position for the time being</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Richard Wagner’s operas usually require an interim of more than 30 minutes for performers to have abreak.  理查德·瓦格纳的歌剧通常需要长达 30 多分钟的幕间休息时间以供演员调整
 an interim government to maintain social stability  维持社会稳定的临时政府</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>interlock</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>interminable</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>adj. 无尽头的： having or seeming to have no end</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2688,65 +2672,65 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>interlock</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>interminable</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>adj. 无尽头的： having or seeming to have no end</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>intermittent</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 间歇的，断断续续的： coming and going at intervals, not continuous
 adj. 不定期的： lacking in steadiness or regularity of occurrence</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>intermittent rain in June  六月里断断续续的梅雨
 The husband’s intermittent employment put the family in a difficult position financially.   丈 夫 不 稳 定 的 工作使得全家陷入了经济上的困境</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>interregnum</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>n. 过渡期： break in continuity</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>interrogate</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>vt. 质问，审问： to question formally and systematically</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2756,10 +2740,54 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>interregnum</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>n. 过渡期： break in continuity</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>interrogate</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>vt. 质问，审问： to question formally and systematically</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>intimate</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>adj. 有紧密联系的，亲密无间的： marked by very close association, contact, or familiarity
 adj. 不为人知的： not known or meant to be known by the general populace
@@ -2767,7 +2795,7 @@
 v. 迂回地交流，间接地沟通： to communicate delicately and indirectly</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>intimate friends since childhood  孩童时期以来的密友
 They broke up after she shared intimate information with all 500 of her closest friends.   在 她 把 那 些 不 为人知的消息告诉了她 500 个朋友之后，他们分手了
@@ -2775,46 +2803,6 @@
 intimate a wish to leave  暗示想离开</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>intimidate</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>vt. 威吓： to make timid or fearful, frighten</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>intoxicant</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2824,17 +2812,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>intransigent</t>
+          <t>intimidate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
+          <t>vt. 威吓： to make timid or fearful, frighten</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>an intransigent attitude  不妥协的态度</t>
+          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2846,19 +2834,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>intrepid</t>
+          <t>intoxicant</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>an intrepid explorer  无畏的探险家</t>
-        </is>
-      </c>
+          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2868,65 +2852,65 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>intransigent</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>an intransigent attitude  不妥协的态度</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>intrepid</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>an intrepid explorer  无畏的探险家</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>intrigue</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>n. 阴谋： a secret plan for accomplishing evil or unlawful ends
 vt. 激起…的兴趣： to arouse the interest, desire, or curiosity of</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>The intrigue was quickly discovered, and the would-be assassins were arrested.   随着阴谋的迅速识破，未得手的刺客被逮捕了
 The children are apparently intrigued by the tale.   孩子们很明显被这个传奇故事吸引了</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>the intrinsic worth of a gem  宝石的内在价值</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>intuitive</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>adj. 直觉的： knowing or perceiving by intuition</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2936,17 +2920,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>inundate</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>vt. 淹没： to cover with or as if with flood</t>
+          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
+          <t>the intrinsic worth of a gem  宝石的内在价值</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2958,19 +2942,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>inure</t>
+          <t>intuitive</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable
-vt. 使坚强： to make able to withstand physical hardship, strain, or exposure</t>
+          <t>adj. 直觉的： knowing or perceiving by intuition</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>children inured to violence  习惯了暴力的孩子们
-The hardship of army training inured her to the rigors of desert warfare.   军营里的艰苦训练把她打造成了能适应沙漠艰苦战事的女兵</t>
+          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2982,17 +2964,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>invective</t>
+          <t>inundate</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
+          <t>vt. 淹没： to cover with or as if with flood</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
+          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3004,17 +2986,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>inveigh</t>
+          <t>inure</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
+          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
+          <t>children inured to violence  习惯了暴力的孩子们</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3026,17 +3008,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>inveigle</t>
+          <t>invective</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
+          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
+          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3048,65 +3030,65 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>inveigh</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>inveigle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>inventory</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 存货清单： a detailed, itemized list, report, or record of things in one's possession, especially aperiodic survey of all goods and materials in stock
 n. （写有要点的）简介： a short statement of the main points</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>The dealership has an unusually large inventory of pre-owned vehicles.   销售商手中有着一份巨大的二手车库存单
 They decided to offer the public an informative inventory of everything that is known about the virus at thistime.  他们决定向公众提供一份极富价值的报告，它涵盖了目前为止关于这种病毒的所有认识</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>inveterate</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>adj. 积习的： firmly established by long persistence</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>invigorate</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>news that invigorates the public  给大众打鸡血的新闻</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3116,17 +3098,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>invincible</t>
+          <t>inveterate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
+          <t>adj. 积习的： firmly established by long persistence</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
+          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3138,65 +3120,65 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>invigorate</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>news that invigorates the public  给大众打鸡血的新闻</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>invincible</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>invoke</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>vt. 实施： to put into effect or operation
 vt. 产生，造成： to be the cause of (a situation, action, or state of mind)</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>New train timetable has been invoked.  新的火车时刻表已经生效
 We should be prepared for the possibility that any solution may invoke another set of problems.   我 们 必须要为这样一种可能做好心理准备：任何解决方案都可能带来一系列新的问题</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>irascible</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>irate</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>adj. 极其愤怒的： extremely angry</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>an irate taxpayer  极为愤怒的纳税人</t>
-        </is>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3206,17 +3188,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>iridescent</t>
+          <t>irascible</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
+          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
+          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3228,65 +3210,65 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>irate</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>adj. 极其愤怒的： extremely angry</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>an irate taxpayer  极为愤怒的纳税人</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>iridescent</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>irk</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 令人烦恼的事物： something that is a source of irritation
 v. 使烦恼，使厌倦： to be irritating, wearisome, or vexing to</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>One of the prof's major irks is a cell phone that rings during a lecture.   课堂上突然响起的手机铃声是最让教授火大的事情之一
 She irked her friends by chewing her gum loudly during the movie.   她因为看电影时嚼口香糖弄出声响而惹怒了她的朋友们</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>ironclad</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>irradicable</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>adj. 不能根除的： impossible to uproot or destroy</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3296,17 +3278,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>irreducible</t>
+          <t>ironclad</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
+          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>irreducible integrals  质数</t>
+          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3318,205 +3300,205 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>irradicable</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>adj. 不能根除的： impossible to uproot or destroy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>irreducible</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>irreducible integrals  质数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>irrigate</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vt. 灌溉： to supply (dry land) with water by means of ditches, pipes, or streams; water artificially
 vt. 冲洗： to flush (a body part) with a stream of liquid (as in removing a foreign body or medicating)</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>irrigate crops periodically  定期灌溉农作物
 irrigate the wound  冲洗伤口</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>irritate</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vt. 刺激，惹恼： to provoke impatience, anger, or displeasure in</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>His rude interruptions really irritated her.   他粗鲁的打断激怒了她</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. （有争议的）话题，议题： a matter that is in dispute between two or more parties
 vi. 发布（期刊等）： to produce and release for distribution in printed form
 vi. 流出： to go, come, or flow out</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>focused on economic and political issues  重点关注经济和政治话题
 plans to issue a monthly newsletter  计划发布新闻月刊
 strange sound issued from the abandoned house  废弃房中传来的奇怪声音</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>jabber</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>vi. 快而不清楚地说： to talk rapidly, indistinctly, or unintelligibly</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>monkeys jabbering at each other in their cages  在笼子里唧唧歪歪的猴子</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>jaded</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 疲惫的： depleted in strength, energy, or freshness
 adj. 厌倦的，没兴趣没热情的： having one's patience, interest, or pleasure exhausted</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>After that long bar exam, I'm too jaded for anything but a nap.  律师资格考试结束后，我累得只想睡觉
 Even jaded sci-fi fans are finding this new space adventure fresh and exciting.   即使是见多识广、口味很挑的科幻小说忠粉也觉得这次的太空探险非常新鲜有趣</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>jargon</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>n. 行业术语： the specialized or technical language of a trade, profession, or similar group</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>medical jargon that the layman cannot understand  外行不理解的医学术语</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>jarring</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 刺耳的： harsh or discordant
 adj. 震惊的： causing a strong emotional reaction because of unexpectedness</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>the final chord of that song is too jarring for me  那首歌最后的合声部分太刺耳了
 the jarring news that major financial institutions were on the verge of collapse  有消息称主要的几个金融机构处于倒闭的边缘，真是让人震惊</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>jaundice</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>jaunty</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>a jaunty stroll  轻快的散步</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3526,17 +3508,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jest</t>
+          <t>jaundice</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
+          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>spoken in jest  戏谑地说</t>
+          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3548,17 +3530,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jeopardy</t>
+          <t>jaunty</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. 危险： risk of loss or injury; peril or danger</t>
+          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
+          <t>a jaunty stroll  轻快的散步</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3570,17 +3552,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jettison</t>
+          <t>jape</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vt. 丢弃，投弃：to cast overboard or off</t>
+          <t>adj. 无趣乏味的： not interesting; dull</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>a ship jettisoning wastes  投弃废物的船</t>
+          <t>jejune lectures  无聊的讲座</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3592,17 +3574,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jibe</t>
+          <t>jest</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vi. 意见一致： to be in accord: agree</t>
+          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
+          <t>spoken in jest  戏谑地说</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3614,17 +3596,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jingoist</t>
+          <t>jeopardy</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
+          <t>n. 危险： risk of loss or injury; peril or danger</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
+          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3636,17 +3618,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jitters</t>
+          <t>jettison</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
+          <t>vt. 丢弃，投弃：to cast overboard or off</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
+          <t>a ship jettisoning wastes  投弃废物的船</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3658,17 +3640,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>jocular</t>
+          <t>jibe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
+          <t>vi. 意见一致： to be in accord: agree</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
+          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3680,17 +3662,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jocund</t>
+          <t>jingoist</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
+          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
+          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3702,107 +3684,107 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>jitters</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>jocular</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>jocund</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>jog</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>n. 慢跑： a movement, pace, or instance of jogging (as for exercise)
 vi. 唤起： to rouse or stimulate</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>an old photo that might jog your memory  一张也许会唤起你回忆的老照片</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>jolt</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>vi. 突然移动： to move or dislodge with a sudden, hard blow
 v. 惊吓： to cause an unpleasant surprise for</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The sneak terrorist attack jolted the country out of its indolence and indifference.   偷偷摸摸 的 恐怖分子将该国从懒惰和冷漠无情中惊醒</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>jot</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>vt .简要记录： to write briefly or hurriedly</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>jot down an address  简要地记下地址</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>jovial</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and convivialityMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>a jovial host  快活的主人</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>jubilant</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>adj. 喜悦的： exultingly joyful</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3814,17 +3796,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>judicious</t>
+          <t>jot</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
+          <t>vt .简要记录： to write briefly or hurriedly</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a judicious choice  明智的抉择</t>
+          <t>jot down an address  简要地记下地址</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3836,19 +3818,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>juggernaut</t>
+          <t>jovial</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
-        </is>
-      </c>
+          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and conviviality</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3858,21 +3836,87 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>jubilant</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>adj. 喜悦的： exultingly joyful</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>judicious</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>a judicious choice  明智的抉择</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>juggernaut</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>ken</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 视野范围： the range of vision
 vt. 知道、了解（人或物）： to know (a person or thing)</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>abstract words that are beyond the ken of children  那些孩子们不能理解的抽象字词</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_1.xlsx
+++ b/result/生词本导入模版_1.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>impugn</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v. 责难，攻击抨击： to attack as false or questionable; challenge in argument</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>impugn a political opponent's character  就政治对手的人品发难</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>impugn</t>
+          <t>impuissance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>v. 责难，攻击抨击： to attack as false or questionable; challenge in argument</t>
+          <t>n. 无权，虚弱： lack of power or effectivenes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>impugn a political opponent's character  就政治对手的人品发难</t>
+          <t>In spite of their impuissance the group remains highly active.  尽管手中无权，但这个组织仍然十分活跃</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +468,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>impuissance</t>
+          <t>inadvertent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 无权，虚弱： lack of power or effectivenes</t>
+          <t>adj. 偶然发生的： happening by chance
+adj. 疏忽的，不留意的： marked by unintentional lack of care</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In spite of their impuissance the group remains highly active.  尽管手中无权，但这个组织仍然十分活跃</t>
+          <t>an inadvertent encounter with a rattlesnake  偶遇响尾蛇
+The military has said it was an inadvertent error.   军方表示这是个疏忽大意的错误</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,19 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>inadvertent</t>
+          <t>inalienable</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 偶然发生的： happening by chance
-adj. 疏忽的，不留意的： marked by unintentional lack of care</t>
+          <t>adj.不可剥夺的，不能让与的： cannot be transferred to another or others</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>an inadvertent encounter with a rattlesnake  偶遇响尾蛇
-The military has said it was an inadvertent error.   军方表示这是个疏忽大意的错误</t>
+          <t>inalienable rights of the citizen  公民不可予夺的权利</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,17 +514,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>inalienable</t>
+          <t>inane</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj.不可剥夺的，不能让与的： cannot be transferred to another or others</t>
+          <t>adj. 空洞的： lacking significance, meaning, or point</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inalienable rights of the citizen  公民不可予夺的权利</t>
+          <t>inane comments  空洞的评论</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -548,17 +536,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>inane</t>
+          <t>inanimate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 空洞的： lacking significance, meaning, or point</t>
+          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>inane comments  空洞的评论</t>
+          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,17 +558,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>inanimate</t>
+          <t>inaugurate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
+          <t>vt. 使就职： to induct into an office by a formal ceremony
+vt. 开始： to cause to begin, especially officially or formally</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
+          <t>A new leader will be inaugurated soon.   新的领导即将就职
+inaugurate a new immigration policy  实施新的移民政策</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,19 +582,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>inaugurate</t>
+          <t>incandescent</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vt. 使就职： to induct into an office by a formal ceremony
-vt. 开始： to cause to begin, especially officially or formally</t>
+          <t>adj. 明亮灿烂的： strikingly bright, radiant, or clear
+adj. 热情饱满的： characterized by glowing zeal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A new leader will be inaugurated soon.   新的领导即将就职
-inaugurate a new immigration policy  实施新的移民政策</t>
+          <t>incandescent light bulbs  明亮的灯泡
+It makes me incandescent with fury.   它让我愤怒不已</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -616,19 +606,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>incandescent</t>
+          <t>incantation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj. 明亮灿烂的： strikingly bright, radiant, or clear
-adj. 热情饱满的： characterized by glowing zeal</t>
+          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>incandescent light bulbs  明亮的灯泡
-It makes me incandescent with fury.   它让我愤怒不已</t>
+          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -640,17 +628,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>incantation</t>
+          <t>incarnate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
+          <t>adj. 化身的，人体化的： invested with bodily nature and form
+v. （思想、理论的）具化，体现： to constitute an embodiment or type of</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
+          <t>He referred to her as devil incarnate.   他把她视作恶魔的化身
+the general view that Hitler incarnated extreme egotism  通常认为希特勒代表了极端的以自我为中心</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -662,19 +652,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>incarnate</t>
+          <t>incendiary</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>adj. 化身的，人体化的： invested with bodily nature and form
-v. （思想、理论的）具化，体现： to constitute an embodiment or type of</t>
+          <t>n. 煽动者： a person who stirs up public feelings especially of discontent
+adj. 煽动性的： tending to inflame</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>He referred to her as devil incarnate.   他把她视作恶魔的化身
-the general view that Hitler incarnated extreme egotism  通常认为希特勒代表了极端的以自我为中心</t>
+          <t>behind-the-scenes incendiaries who were intending to overthrow the government  企图推翻政府的幕后煽动者
+an incendiary speech  煽动性的演说</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -686,19 +676,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>incendiary</t>
+          <t>incense</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 煽动者： a person who stirs up public feelings especially of discontent
-adj. 煽动性的： tending to inflame</t>
+          <t>n. 芳香： a sweet or pleasant smell
+vt. 激怒： to cause to be extremely angry</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>behind-the-scenes incendiaries who were intending to overthrow the government  企图推翻政府的幕后煽动者
-an incendiary speech  煽动性的演说</t>
+          <t>the heavenly incense of spring flowers  春天花朵发出的美妙芳香
+This proposal will certainly incense female activists.  这个提案肯定会激怒女权主义者</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,19 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>incense</t>
+          <t>inception</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n. 芳香： a sweet or pleasant smell
-vt. 激怒： to cause to be extremely angry</t>
+          <t>n. 开端，开始： an act, process, or instance of beginning</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>the heavenly incense of spring flowers  春天花朵发出的美妙芳香
-This proposal will certainly incense female activists.  这个提案肯定会激怒女权主义者</t>
+          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -734,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>inception</t>
+          <t>incessant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 开端，开始： an act, process, or instance of beginning</t>
+          <t>adj. 无间断的：continuing or following without interruption</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
+          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -756,44 +744,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>incessant</t>
+          <t>inch</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 无间断的：continuing or following without interruption</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>inch</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>n. 少量，很短的距离： a very small distance or degree
 v. 慢慢移动： to move or cause to move slowly or by small degrees</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>give them aninch, and they'll take a mile  得寸进尺
 Inch by inch, we're making progress toward ourfund-raising goal.   我们在慢慢地接近筹款的目标
 The car inched carefully across the snow-covered bridge.   汽车慢慢地通过被大雪覆盖的桥梁</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>inchoate</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adj. 新生的： in an initial or early stage
+adj. 未完全成型的： imperfectly formed or developed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>inchoate feelings of affection for a man  刚刚产生的好感
+a vague, inchoate notion  模糊而不成形的想法</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -803,19 +793,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>inchoate</t>
+          <t>incinerate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 新生的： in an initial or early stage
-adj. 未完全成型的： imperfectly formed or developed</t>
+          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>inchoate feelings of affection for a man  刚刚产生的好感
-a vague, inchoate notion  模糊而不成形的想法</t>
+          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -827,17 +815,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>incinerate</t>
+          <t>incipient</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
+          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
+          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -849,17 +837,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>incipient</t>
+          <t>incite</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
+          <t>vt. 煽动，激起： to provoke and urge on</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
+          <t>inciting workers to strike  煽动工人罢工</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -871,17 +859,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>incite</t>
+          <t>inclement</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to provoke and urge on</t>
+          <t>adj. （天气等）恶劣的： lacking mildness</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inciting workers to strike  煽动工人罢工</t>
+          <t>inclement weather conditions  恶劣的气象条件</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -893,17 +881,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>inclement</t>
+          <t>incogitant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. （天气等）恶劣的： lacking mildness</t>
+          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inclement weather conditions  恶劣的气象条件</t>
+          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -915,17 +903,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>incogitant</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
+          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
+          <t>Two triangles are incongruent.   两个三角形不全等。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -937,17 +925,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>inconsequential</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
+          <t>adj. 不合逻辑的： not using or following good reasoning
+adj. 不重要的： of no significance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Two triangles are incongruent.   两个三角形不全等。</t>
+          <t>an inconsequential line of argument  不合逻辑的论述
+That's an inconsequential problem compared to the other issues.  和其他问题相比，这就是个无关痛痒的小事</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -959,19 +949,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>inconsequential</t>
+          <t>incontrovertible</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 不合逻辑的： not using or following good reasoning
-adj. 不重要的： of no significance</t>
+          <t>adj. 无可争议的： not open to question</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>an inconsequential line of argument  不合逻辑的论述
-That's an inconsequential problem compared to the other issues.  和其他问题相比，这就是个无关痛痒的小事</t>
+          <t>incontrovertible facts  无可非议的事实</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -983,19 +971,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>incontrovertible</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 无可争议的： not open to question</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>incontrovertible facts  无可非议的事实</t>
-        </is>
-      </c>
+          <t>incorrigible</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1005,11 +985,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>incorrigible</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t>incriminate</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>incriminate innocent people  诬陷好人</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1019,17 +1007,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>incriminate</t>
+          <t>incubate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
+          <t>vt. 孵化： to cover and warm eggs as the young inside develop
+vt. 帮助，培养，促进： to cause or aid the development of</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>incriminate innocent people  诬陷好人</t>
+          <t>The hen incubated her eggs for two weeks.  母鸡孵蛋两周
+Hopefully, these youthful visits to the museum will incubate an enduring love of art.  我 们 希 望 年 轻 时参观博物馆能够培养他们对于艺术的持久热爱</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1041,21 +1031,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>incubate</t>
+          <t>inculpate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vt. 孵化： to cover and warm eggs as the young inside develop
-vt. 帮助，培养，促进： to cause or aid the development of</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>The hen incubated her eggs for two weeks.  母鸡孵蛋两周
-Hopefully, these youthful visits to the museum will incubate an enduring love of art.  我 们 希 望 年 轻 时参观博物馆能够培养他们对于艺术的持久热爱</t>
-        </is>
-      </c>
+          <t>vt.归罪于： incriminate</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1065,15 +1049,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>inculpate</t>
+          <t>incursion</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vt.归罪于： incriminate</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>n.入侵： a hostile entrance into a territory</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1083,17 +1071,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>incursion</t>
+          <t>indelible</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>n.入侵： a hostile entrance into a territory</t>
+          <t>adj. （印记等）无法擦除的： impossible to remove, erase, or wash away
+adj. 无法忘怀的： not easily forgotten</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
+          <t>indelible ink  难以擦拭的墨水
+most indelible experiences  最难以磨灭的经历</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1105,19 +1095,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>indelible</t>
+          <t>indemnity</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. （印记等）无法擦除的： impossible to remove, erase, or wash away
-adj. 无法忘怀的： not easily forgotten</t>
+          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>indelible ink  难以擦拭的墨水
-most indelible experiences  最难以磨灭的经历</t>
+          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1129,17 +1117,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>indemnity</t>
+          <t>indict</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
+          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
+          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1151,17 +1139,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>indict</t>
+          <t>indigenous</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
+          <t>adj. 土产的，本地的： originating and living or occurring naturally in an area or environment
+adj. 与生俱来的，先天的： being a part of the innermost nature of a person or thing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
+          <t>the culture of the indigenous people of that country  那个国家原著民的文化
+The drive to create is indigenous to humanity.   人类创造的动力是与生俱来的</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1173,19 +1163,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>indigenous</t>
+          <t>indigent</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 土产的，本地的： originating and living or occurring naturally in an area or environment
-adj. 与生俱来的，先天的： being a part of the innermost nature of a person or thing</t>
+          <t>adj. 贫穷的： lacking money or material possessions</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>the culture of the indigenous people of that country  那个国家原著民的文化
-The drive to create is indigenous to humanity.   人类创造的动力是与生俱来的</t>
+          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1197,17 +1185,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>indigent</t>
+          <t>indispensable</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 贫穷的： lacking money or material possessions</t>
+          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
+          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1219,17 +1207,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>indispensable</t>
+          <t>indoctrinate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
+          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
+          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1241,17 +1229,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>indoctrinate</t>
+          <t>indolent</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
+          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
+          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1263,17 +1251,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>indolent</t>
+          <t>inducement</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
+          <t>n. 动机，刺激源： a motive or consideration that leads one to action
+n.劝说，游说： the act of reasoning or pleading with someone to accept a belief or course of action</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
+          <t>offered an expensive watch as an inducement to ratify the proposal  赠送名贵手表以求计划得到批准
+He gave up smoking only after a prolonged inducement by all the other family members.  在 所 有 家 庭成员坚持不懈的劝说之下，他终于愿意戒烟了</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1285,19 +1275,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>inducement</t>
+          <t>indulgent</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>n. 动机，刺激源： a motive or consideration that leads one to action
-n.劝说，游说： the act of reasoning or pleading with someone to accept a belief or course of action</t>
+          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>offered an expensive watch as an inducement to ratify the proposal  赠送名贵手表以求计划得到批准
-He gave up smoking only after a prolonged inducement by all the other family members.  在 所 有 家 庭成员坚持不懈的劝说之下，他终于愿意戒烟了</t>
+          <t>indulgent aristocrats  生活放纵的贵族</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1309,45 +1297,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>indulgent</t>
+          <t>indurate</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>indulgent aristocrats  生活放纵的贵族</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>indurate</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 铁石心肠的，冷酷无情的： having or showing a lack of sympathy or tender feelings
 vt. 使变硬： to become physically firm or solid
 vt. 使习惯于：使习惯于，如艰苦或尴尬之境况： to make able to withstand physical hardship, strain,or exposure</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>an indurate heart that admits no love or mercy  一颗不认可爱或仁慈的冷酷心灵
 Great heat indurates clay.   高温使黏土变硬
 Such a brutal upbringing could only callous his soul and indurate his heart to the suffering of others.   这样一种残暴的培养方式只会让他的灵魂变得麻木，让他的心灵对于他人所受的折磨无动于衷</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>industrious</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1357,17 +1345,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>industrious</t>
+          <t>ineffable</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
+          <t>adj. 难以表达的： incapable of being expressed</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
+          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1379,17 +1367,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ineffable</t>
+          <t>ineluctable</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 难以表达的： incapable of being expressed</t>
+          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
+          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1401,44 +1389,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ineluctable</t>
+          <t>inept</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>inept</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
         <is>
           <t>adj.愚笨的，荒谬的： displaying a lack of judgment, sense, or reason
 adj.不恰当的，不合时宜的： not appropriate for a particular occasion or situation
 adj. 不称职的，无能力的： generally incompetent</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>an inept and irresponsible remark on his paper  对他文章的荒谬而不负责任的评论
 a hopelessly inept defense attorney  严重不靠谱的辩护律师</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>inert</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>inert ingredients in drugs  药品中的惰性成分</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1448,17 +1436,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>inert</t>
+          <t>inevitable</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
+          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inert ingredients in drugs  药品中的惰性成分</t>
+          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1470,17 +1458,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>inevitable</t>
+          <t>inexorable</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
+          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
+          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1492,17 +1480,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>inexorable</t>
+          <t>infamous</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
+          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
+          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1514,17 +1502,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>infamous</t>
+          <t>infatuate</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
+          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
+          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1536,17 +1524,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>infatuate</t>
+          <t>inferno</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
+          <t>n. 大火： an intense fire
+n. 地狱： a place or a state that resembles or suggests hell</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
+          <t>A raging inferno posed a serious threat to the downwind villages.  肆虐的大火给下风向的村庄带来了严重的威胁
+the inferno of war  地狱般的战场</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1558,19 +1548,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>inferno</t>
+          <t>infiltrate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. 大火： an intense fire
-n. 地狱： a place or a state that resembles or suggests hell</t>
+          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A raging inferno posed a serious threat to the downwind villages.  肆虐的大火给下风向的村庄带来了严重的威胁
-the inferno of war  地狱般的战场</t>
+          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1582,17 +1570,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>infiltrate</t>
+          <t>infinite</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
+          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
+          <t>the idea of an infinite universe  无限宇宙的概念</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1604,17 +1592,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>infinite</t>
+          <t>infirm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
+          <t>adj. 虚弱的： weak in body, especially from old age or disease</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>the idea of an infinite universe  无限宇宙的概念</t>
+          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1626,17 +1614,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>infirm</t>
+          <t>inflame</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 虚弱的： weak in body, especially from old age or disease</t>
+          <t>v. 点燃： to set on fire
+v. 使加剧：to make more violent</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫</t>
+          <t>A carelessly tossed cigarette inflamed the papers in the trash can.  一只被随意丢弃的香烟点燃了垃圾桶中的纸
+Retaliation served only to inflame the feud.  冤冤相报何时了</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1648,19 +1638,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>inflame</t>
+          <t>infelicitous</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>v. 点燃： to set on fire
-v. 使加剧：to make more violent</t>
+          <t>adj. 不愉快的，不幸的： not happy; unfortunate
+adj. 不适当的，不合时宜的： not appropriate or well-timed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A carelessly tossed cigarette inflamed the papers in the trash can.  一只被随意丢弃的香烟点燃了垃圾桶中的纸
-Retaliation served only to inflame the feud.  冤冤相报何时了</t>
+          <t>an infelicitous moment  不幸的时刻
+made a very infelicitous remark  做出极不恰当的评价</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1672,19 +1662,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>infelicitous</t>
+          <t>influx</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adj. 不愉快的，不幸的： not happy; unfortunate
-adj. 不适当的，不合时宜的： not appropriate or well-timed</t>
+          <t>n. 涌入： a coming in</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>an infelicitous moment  不幸的时刻
-made a very infelicitous remark  做出极不恰当的评价</t>
+          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1696,17 +1684,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>influx</t>
+          <t>infuse</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 涌入： a coming in</t>
+          <t>vt. 灌输，使…充满： to fill or cause to be filled with something
+vt. 鼓舞： inspire, animate</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
+          <t>New members infused enthusiasm into the club.   新队员为俱乐部注入了激情
+a sense of purpose that infuses scientific researchers  给科学研究者打鸡血一般的使命感</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1718,19 +1708,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>infuse</t>
+          <t>infuriate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vt. 灌输，使…充满： to fill or cause to be filled with something
-vt. 鼓舞： inspire, animate</t>
+          <t>vt. 激怒： to make furious</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>New members infused enthusiasm into the club.   新队员为俱乐部注入了激情
-a sense of purpose that infuses scientific researchers  给科学研究者打鸡血一般的使命感</t>
+          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1742,17 +1730,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>infuriate</t>
+          <t>ingenious</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vt. 激怒： to make furious</t>
+          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
+          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1764,17 +1752,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ingenious</t>
+          <t>ingenuity</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
+          <t>n. 独创性，创新性： inventive skill or imagination</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
+          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1786,17 +1774,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ingenuity</t>
+          <t>ingenuous</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n. 独创性，创新性： inventive skill or imagination</t>
+          <t>adj. 天真淳朴的： lacking in cunning, guile, or worldliness
+adj. 坦白的： openly straightforward or frank</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
+          <t>Photographs captured the ingenuous smiles of young children at play.  摄影家捕捉到了演出中孩子们天真无邪的笑脸
+her ingenuous thirst for knowledge  她对知识毫不掩饰的渴望</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1808,19 +1798,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ingenuous</t>
+          <t>ingest</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 天真淳朴的： lacking in cunning, guile, or worldliness
-adj. 坦白的： openly straightforward or frank</t>
+          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Photographs captured the ingenuous smiles of young children at play.  摄影家捕捉到了演出中孩子们天真无邪的笑脸
-her ingenuous thirst for knowledge  她对知识毫不掩饰的渴望</t>
+          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1832,17 +1820,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ingest</t>
+          <t>ingrained</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
+          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
+          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1854,17 +1842,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ingrained</t>
+          <t>ingratiating</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
+          <t>adj. 讨人喜欢的： capable of winning favor
+adj. 逢迎的，意在奉承的： intended or adopted in order to gain favor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
+          <t>They adopted the orphan who had a most ingratiating smile.  他们收养了那名有着最惹人喜欢的笑容的孤儿
+an repulsive ingratiating smile  令人反感的阿谀奉承的微笑</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1876,19 +1866,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ingratiating</t>
+          <t>inherent</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 讨人喜欢的： capable of winning favor
-adj. 逢迎的，意在奉承的： intended or adopted in order to gain favor</t>
+          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>They adopted the orphan who had a most ingratiating smile.  他们收养了那名有着最惹人喜欢的笑容的孤儿
-an repulsive ingratiating smile  令人反感的阿谀奉承的微笑</t>
+          <t>a disposition inherent in human nature  人性内在的倾向</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1900,17 +1888,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>inherent</t>
+          <t>inimical</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
+          <t>adj. 带有敌意的： reflecting or indicating hostility
+adj. 危及某人利益的，不利的： opposed to one's interests</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>a disposition inherent in human nature  人性内在的倾向</t>
+          <t xml:space="preserve">a cold, inimical voice  冰冷而不友好的声音
+Laws were designed to enhance national security but some regard as inimical to cherished freedoms.  </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1922,19 +1912,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>inimical</t>
+          <t>inimitable</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>adj. 带有敌意的： reflecting or indicating hostility
-adj. 危及某人利益的，不利的： opposed to one's interests</t>
+          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">a cold, inimical voice  冰冷而不友好的声音
-Laws were designed to enhance national security but some regard as inimical to cherished freedoms.  </t>
+          <t>her own inimitable style  她特立独行的作风</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1946,17 +1934,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>inimitable</t>
+          <t>iniquity</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
+          <t>n. 邪恶，不公正： gross immorality or injustice</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>her own inimitable style  她特立独行的作风</t>
+          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1968,17 +1956,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>iniquity</t>
+          <t>initiate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n. 邪恶，不公正： gross immorality or injustice</t>
+          <t>vt. 创始，发动促进： to cause or facilitate the beginning of
+n. 刚入门的新手： a person who is undergoing or has undergone an initiation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
+          <t>a chain reaction initiated by UV irradiation  紫外光激发引起的连锁反应</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1990,18 +1979,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>initiate</t>
+          <t>inkling</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>vt. 创始，发动促进： to cause or facilitate the beginning of
-n. 刚入门的新手： a person who is undergoing or has undergone an initiation</t>
+          <t>n. 轻微暗示，小提示： a slight indication or suggestion
+n. 略知： a slight knowledge or vague notion</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>a chain reaction initiated by UV irradiation  紫外光激发引起的连锁反应</t>
+          <t>They hadn't given us an inkling of what was going to happen.  他们不给我们任何暗示将会发生什么
+not have even the faintest inkling of what the project was all about  对这个项目与什么有关毫不知情</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2013,19 +2003,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>inkling</t>
+          <t>innocuous</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n. 轻微暗示，小提示： a slight indication or suggestion
-n. 略知： a slight knowledge or vague notion</t>
+          <t>adj. 无害的： producing no injury
+adj. 乏味的，不会引起敌意的： not likely to give offense or to arouse strong feelings or hostility</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>They hadn't given us an inkling of what was going to happen.  他们不给我们任何暗示将会发生什么
-not have even the faintest inkling of what the project was all about  对这个项目与什么有关毫不知情</t>
+          <t>The government enacted a more strict regulation on innocuous preservatives.   政府对无害防腐剂制定了更为严格的规定
+He made an innocuous remark to avoid conflict.  为了避免冲突，他做了一个中庸的评价</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2037,19 +2027,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>innocuous</t>
+          <t>innovative</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 无害的： producing no injury
-adj. 乏味的，不会引起敌意的： not likely to give offense or to arouse strong feelings or hostility</t>
+          <t>adj. 创新性的： characterized by, tending to, or introducing innovations</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>The government enacted a more strict regulation on innocuous preservatives.   政府对无害防腐剂制定了更为严格的规定
-He made an innocuous remark to avoid conflict.  为了避免冲突，他做了一个中庸的评价</t>
+          <t>an innovative macro-economic strategy  创新性的宏观经济战略</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2061,17 +2049,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>innovative</t>
+          <t>inquisitive</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 创新性的： characterized by, tending to, or introducing innovations</t>
+          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>an innovative macro-economic strategy  创新性的宏观经济战略</t>
+          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2083,45 +2071,47 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>inquisitive</t>
+          <t>insensible</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>insensible</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 无知觉的： having lost consciousness, especially temporarily
 adj. 漠不关心的： not emotionally responsive
 adj. 粗俗的，没品味的： lacking in refinement or good taste</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>The security guard was knocked insensible by a sudden blow.   保安被突如其来的一击敲晕了
 insensible to workers’ requests  对工人的要求无动于衷
 She married an insensible brute upon whom the niceties of life were completely lost.  她嫁给了一个毫无品味的凡夫俗子，从此她的生活再无任何情趣</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>insensitive</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>adj. 缺乏机智圆滑的，缺乏社交技巧的： lacking tact
+adj. 不敏感的，麻木的： not responsive or susceptible</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>so insensitive as to laugh at someone in pain  如此缺乏社交技巧以至于嘲笑处于悲痛中的人
+insensitive to either criticism or commendation  对批评和表扬都不在乎</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2131,19 +2121,18 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>insensitive</t>
+          <t>insentient</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 缺乏机智圆滑的，缺乏社交技巧的： lacking tact
-adj. 不敏感的，麻木的： not responsive or susceptible</t>
+          <t>adj. 无感觉，无知觉的： lacking perception, consciousness, or animation
+adj. 一知半解的，略懂的： not having or showing a deep understanding of something</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>so insensitive as to laugh at someone in pain  如此缺乏社交技巧以至于嘲笑处于悲痛中的人
-insensitive to either criticism or commendation  对批评和表扬都不在乎</t>
+          <t>He refused to believe that the universe as we know it evolved from the random interactions of insentientparticles of matter.  他拒绝相信我们所知的宇宙是经由无生命的粒子间的相互作用演化而来的</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2155,18 +2144,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>insentient</t>
+          <t>insight</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 无感觉，无知觉的： lacking perception, consciousness, or animation
-adj. 一知半解的，略懂的： not having or showing a deep understanding of something</t>
+          <t>n. 深刻的理解： an instance of apprehending the true nature of a thing, especially through intuitiveunderstanding</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>He refused to believe that the universe as we know it evolved from the random interactions of insentientparticles of matter.  他拒绝相信我们所知的宇宙是经由无生命的粒子间的相互作用演化而来的</t>
+          <t>an insight into the global-scale environmental problems  对于全球性环境问题的深刻理解</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2178,17 +2166,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>insight</t>
+          <t>insipid</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n. 深刻的理解： an instance of apprehending the true nature of a thing, especially through intuitiveunderstanding</t>
+          <t>adj. （食品）清淡无味的： lacking flavor or zest; not tasty
+adj. 平淡的，无聊的： lacking in qualities that interest, stimulate, or challenge</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>an insight into the global-scale environmental problems  对于全球性环境问题的深刻理解</t>
+          <t>a rather insipid soup  味道清淡的汤
+an insipid story of the prince and the princess  一个关于王子和公主的无聊故事</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2200,19 +2190,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>insipid</t>
+          <t>insolent</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. （食品）清淡无味的： lacking flavor or zest; not tasty
-adj. 平淡的，无聊的： lacking in qualities that interest, stimulate, or challenge</t>
+          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>a rather insipid soup  味道清淡的汤
-an insipid story of the prince and the princess  一个关于王子和公主的无聊故事</t>
+          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2224,17 +2212,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>insolent</t>
+          <t>insouciant</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
+          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
+          <t>an insouciant shrug  无所谓地耸耸肩</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2246,17 +2234,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>insouciant</t>
+          <t>instate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
+          <t>vt. 任命： to set or establish in a rank or office</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>an insouciant shrug  无所谓地耸耸肩</t>
+          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2268,17 +2256,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>instate</t>
+          <t>instigate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 任命： to set or establish in a rank or office</t>
+          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
+          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2290,17 +2278,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>instigate</t>
+          <t>instill</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
+          <t>v. 慢慢滴入： to cause to enter drop by drop
+v. 灌输： to impart gradually</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
+          <t>instill medication into the infected eye  将药物滴入患者受感染的眼中
+instill a sense of responsibility to the young  向年轻人灌输一种责任感</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2312,19 +2302,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>instill</t>
+          <t>institute</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>v. 慢慢滴入： to cause to enter drop by drop
-v. 灌输： to impart gradually</t>
+          <t>vt. 创立，制定： to establish, organize, and set in operation
+n. 机构： an organization for the promotion of a cause</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>instill medication into the infected eye  将药物滴入患者受感染的眼中
-instill a sense of responsibility to the young  向年轻人灌输一种责任感</t>
+          <t>institute a new department  创建一个新的部门
+a research institute  研究机构</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2336,19 +2326,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>institute</t>
+          <t>insubordinate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vt. 创立，制定： to establish, organize, and set in operation
-n. 机构： an organization for the promotion of a cause</t>
+          <t>adj. 不服从权威的： not submissiveto authority</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>institute a new department  创建一个新的部门
-a research institute  研究机构</t>
+          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2360,17 +2348,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>insubordinate</t>
+          <t>insular</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 不服从权威的： not submissiveto authority</t>
+          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
+          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2382,17 +2370,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>insular</t>
+          <t>insulate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
+          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
+          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2404,17 +2392,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>insulate</t>
+          <t>insurgent</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
+          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
+          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2426,17 +2414,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>insurgent</t>
+          <t>intangible</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
+          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
+          <t>intangible value of a good reputation  良好声誉的无形价值</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2448,17 +2436,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>intangible</t>
+          <t>integral</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
+          <t>adj. 构成整体所必需的： essential to completeness
+adj. 完整的： not lacking any part or member that properly belongs to it</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>intangible value of a good reputation  良好声誉的无形价值</t>
+          <t>an integral part of the undergraduate curriculum  本科生课程的必修部分
+the belief that athletics are essential to an integral life  坚信运动是完整的人生所不可或缺的一部分</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2470,19 +2460,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>integral</t>
+          <t>integrity</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 构成整体所必需的： essential to completeness
-adj. 完整的： not lacking any part or member that properly belongs to it</t>
+          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>an integral part of the undergraduate curriculum  本科生课程的必修部分
-the belief that athletics are essential to an integral life  坚信运动是完整的人生所不可或缺的一部分</t>
+          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2494,17 +2482,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>integrity</t>
+          <t>intelligible</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth</t>
+          <t>adj. 可理解的： capable of being understood</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的</t>
+          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2516,17 +2504,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>intelligible</t>
+          <t>intemperate</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adj. 可理解的： capable of being understood</t>
+          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
+          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2538,17 +2526,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>intemperate</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
+          <t>vt. 加强，激化： to make intense or more intensive</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
+          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2560,17 +2548,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>inter</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vt. 加强，激化： to make intense or more intensive</t>
+          <t>vt. 埋葬： to place in a grave or tomb</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
+          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2582,17 +2570,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>inter</t>
+          <t>intercessor</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vt. 埋葬： to place in a grave or tomb</t>
+          <t>n. 调停者： one that mediates</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
+          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2604,17 +2592,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>intercessor</t>
+          <t>interdict</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 调停者： one that mediates</t>
+          <t>vt. 禁止： to forbid in a usually formal or authoritative manner</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
+          <t>Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2626,17 +2614,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>interdict</t>
+          <t>interim</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>vt. 禁止： to forbid in a usually formal or authoritative manner</t>
+          <t>n. 中间过渡时期，间隔： an interval of time between one event, process, or period and another
+adj. 暂时的： serving in a position for the time being</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的</t>
+          <t>Richard Wagner’s operas usually require an interim of more than 30 minutes for performers to have abreak.  理查德·瓦格纳的歌剧通常需要长达 30 多分钟的幕间休息时间以供演员调整
+an interim government to maintain social stability  维持社会稳定的临时政府</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2648,19 +2638,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>interim</t>
+          <t>interlock</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 中间过渡时期，间隔： an interval of time between one event, process, or period and another
-adj. 暂时的： serving in a position for the time being</t>
+          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Richard Wagner’s operas usually require an interim of more than 30 minutes for performers to have abreak.  理查德·瓦格纳的歌剧通常需要长达 30 多分钟的幕间休息时间以供演员调整
-an interim government to maintain social stability  维持社会稳定的临时政府</t>
+          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2672,17 +2660,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>interlock</t>
+          <t>interminable</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
+          <t>adj. 无尽头的： having or seeming to have no end</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
+          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2694,17 +2682,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>interminable</t>
+          <t>intermittent</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>adj. 无尽头的： having or seeming to have no end</t>
+          <t>adj. 间歇的，断断续续的： coming and going at intervals, not continuous
+adj. 不定期的： lacking in steadiness or regularity of occurrence</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
+          <t>intermittent rain in June  六月里断断续续的梅雨
+The husband’s intermittent employment put the family in a difficult position financially.   丈 夫 不 稳 定 的 工作使得全家陷入了经济上的困境</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2716,19 +2706,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>intermittent</t>
+          <t>interregnum</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 间歇的，断断续续的： coming and going at intervals, not continuous
-adj. 不定期的： lacking in steadiness or regularity of occurrence</t>
+          <t>n. 过渡期： break in continuity</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>intermittent rain in June  六月里断断续续的梅雨
-The husband’s intermittent employment put the family in a difficult position financially.   丈 夫 不 稳 定 的 工作使得全家陷入了经济上的困境</t>
+          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2740,17 +2728,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>interregnum</t>
+          <t>interrogate</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 过渡期： break in continuity</t>
+          <t>vt. 质问，审问： to question formally and systematically</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
+          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2762,32 +2750,10 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>interrogate</t>
+          <t>intimate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>vt. 质问，审问： to question formally and systematically</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>intimate</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
         <is>
           <t>adj. 有紧密联系的，亲密无间的： marked by very close association, contact, or familiarity
 adj. 不为人知的： not known or meant to be known by the general populace
@@ -2795,7 +2761,7 @@
 v. 迂回地交流，间接地沟通： to communicate delicately and indirectly</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>intimate friends since childhood  孩童时期以来的密友
 They broke up after she shared intimate information with all 500 of her closest friends.   在 她 把 那 些 不 为人知的消息告诉了她 500 个朋友之后，他们分手了
@@ -2803,6 +2769,28 @@
 intimate a wish to leave  暗示想离开</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>intimidate</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>vt. 威吓： to make timid or fearful, frighten</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2812,19 +2800,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>intimidate</t>
+          <t>intoxicant</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 威吓： to make timid or fearful, frighten</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
-        </is>
-      </c>
+          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2834,15 +2818,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>intoxicant</t>
+          <t>intransigent</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>an intransigent attitude  不妥协的态度</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2852,17 +2840,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>intransigent</t>
+          <t>intrepid</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
+          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>an intransigent attitude  不妥协的态度</t>
+          <t>an intrepid explorer  无畏的探险家</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2874,17 +2862,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>intrepid</t>
+          <t>intrigue</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
+          <t>n. 阴谋： a secret plan for accomplishing evil or unlawful ends
+vt. 激起…的兴趣： to arouse the interest, desire, or curiosity of</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>an intrepid explorer  无畏的探险家</t>
+          <t>The intrigue was quickly discovered, and the would-be assassins were arrested.   随着阴谋的迅速识破，未得手的刺客被逮捕了
+The children are apparently intrigued by the tale.   孩子们很明显被这个传奇故事吸引了</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2896,19 +2886,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>intrigue</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 阴谋： a secret plan for accomplishing evil or unlawful ends
-vt. 激起…的兴趣： to arouse the interest, desire, or curiosity of</t>
+          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>The intrigue was quickly discovered, and the would-be assassins were arrested.   随着阴谋的迅速识破，未得手的刺客被逮捕了
-The children are apparently intrigued by the tale.   孩子们很明显被这个传奇故事吸引了</t>
+          <t>the intrinsic worth of a gem  宝石的内在价值</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2920,17 +2908,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>intrinsic</t>
+          <t>intuitive</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
+          <t>adj. 直觉的： knowing or perceiving by intuition</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>the intrinsic worth of a gem  宝石的内在价值</t>
+          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2942,17 +2930,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>intuitive</t>
+          <t>inundate</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 直觉的： knowing or perceiving by intuition</t>
+          <t>vt. 淹没： to cover with or as if with flood</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
+          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2964,17 +2952,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>inundate</t>
+          <t>inure</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. 淹没： to cover with or as if with flood</t>
+          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
+          <t>children inured to violence  习惯了暴力的孩子们</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2986,17 +2974,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>inure</t>
+          <t>invective</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable</t>
+          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>children inured to violence  习惯了暴力的孩子们</t>
+          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3008,17 +2996,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>invective</t>
+          <t>inveigh</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
+          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
+          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3030,17 +3018,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>inveigh</t>
+          <t>inveigle</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
+          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
+          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3052,17 +3040,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>inveigle</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
+          <t>n. 存货清单： a detailed, itemized list, report, or record of things in one's possession, especially aperiodic survey of all goods and materials in stock
+n. （写有要点的）简介： a short statement of the main points</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
+          <t>The dealership has an unusually large inventory of pre-owned vehicles.   销售商手中有着一份巨大的二手车库存单
+They decided to offer the public an informative inventory of everything that is known about the virus at thistime.  他们决定向公众提供一份极富价值的报告，它涵盖了目前为止关于这种病毒的所有认识</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3074,19 +3064,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>inveterate</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n. 存货清单： a detailed, itemized list, report, or record of things in one's possession, especially aperiodic survey of all goods and materials in stock
-n. （写有要点的）简介： a short statement of the main points</t>
+          <t>adj. 积习的： firmly established by long persistence</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The dealership has an unusually large inventory of pre-owned vehicles.   销售商手中有着一份巨大的二手车库存单
-They decided to offer the public an informative inventory of everything that is known about the virus at thistime.  他们决定向公众提供一份极富价值的报告，它涵盖了目前为止关于这种病毒的所有认识</t>
+          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3098,17 +3086,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>inveterate</t>
+          <t>invigorate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 积习的： firmly established by long persistence</t>
+          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
+          <t>news that invigorates the public  给大众打鸡血的新闻</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3120,17 +3108,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>invigorate</t>
+          <t>invincible</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
+          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>news that invigorates the public  给大众打鸡血的新闻</t>
+          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3142,17 +3130,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>invincible</t>
+          <t>invoke</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
+          <t>vt. 实施： to put into effect or operation
+vt. 产生，造成： to be the cause of (a situation, action, or state of mind)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
+          <t>New train timetable has been invoked.  新的火车时刻表已经生效
+We should be prepared for the possibility that any solution may invoke another set of problems.   我 们 必须要为这样一种可能做好心理准备：任何解决方案都可能带来一系列新的问题</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3164,19 +3154,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>invoke</t>
+          <t>irascible</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>vt. 实施： to put into effect or operation
-vt. 产生，造成： to be the cause of (a situation, action, or state of mind)</t>
+          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>New train timetable has been invoked.  新的火车时刻表已经生效
-We should be prepared for the possibility that any solution may invoke another set of problems.   我 们 必须要为这样一种可能做好心理准备：任何解决方案都可能带来一系列新的问题</t>
+          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3188,17 +3176,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>irascible</t>
+          <t>irate</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
+          <t>adj. 极其愤怒的： extremely angry</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
+          <t>an irate taxpayer  极为愤怒的纳税人</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3210,17 +3198,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>irate</t>
+          <t>iridescent</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 极其愤怒的： extremely angry</t>
+          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>an irate taxpayer  极为愤怒的纳税人</t>
+          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3232,17 +3220,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>iridescent</t>
+          <t>irk</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
+          <t>n. 令人烦恼的事物： something that is a source of irritation
+v. 使烦恼，使厌倦： to be irritating, wearisome, or vexing to</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
+          <t>One of the prof's major irks is a cell phone that rings during a lecture.   课堂上突然响起的手机铃声是最让教授火大的事情之一
+She irked her friends by chewing her gum loudly during the movie.   她因为看电影时嚼口香糖弄出声响而惹怒了她的朋友们</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3254,19 +3244,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>irk</t>
+          <t>ironclad</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>n. 令人烦恼的事物： something that is a source of irritation
-v. 使烦恼，使厌倦： to be irritating, wearisome, or vexing to</t>
+          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>One of the prof's major irks is a cell phone that rings during a lecture.   课堂上突然响起的手机铃声是最让教授火大的事情之一
-She irked her friends by chewing her gum loudly during the movie.   她因为看电影时嚼口香糖弄出声响而惹怒了她的朋友们</t>
+          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3278,17 +3266,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ironclad</t>
+          <t>irradicable</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
+          <t>adj. 不能根除的： impossible to uproot or destroy</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
+          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3300,17 +3288,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>irradicable</t>
+          <t>irreducible</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>adj. 不能根除的： impossible to uproot or destroy</t>
+          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
+          <t>irreducible integrals  质数</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3322,17 +3310,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>irreducible</t>
+          <t>irrigate</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
+          <t>vt. 灌溉： to supply (dry land) with water by means of ditches, pipes, or streams; water artificially
+vt. 冲洗： to flush (a body part) with a stream of liquid (as in removing a foreign body or medicating)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>irreducible integrals  质数</t>
+          <t>irrigate crops periodically  定期灌溉农作物
+irrigate the wound  冲洗伤口</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3344,19 +3334,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>irrigate</t>
+          <t>irritate</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vt. 灌溉： to supply (dry land) with water by means of ditches, pipes, or streams; water artificially
-vt. 冲洗： to flush (a body part) with a stream of liquid (as in removing a foreign body or medicating)</t>
+          <t>vt. 刺激，惹恼： to provoke impatience, anger, or displeasure in</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>irrigate crops periodically  定期灌溉农作物
-irrigate the wound  冲洗伤口</t>
+          <t>His rude interruptions really irritated her.   他粗鲁的打断激怒了她</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3368,45 +3356,45 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>irritate</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
-        <is>
-          <t>vt. 刺激，惹恼： to provoke impatience, anger, or displeasure in</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>His rude interruptions really irritated her.   他粗鲁的打断激怒了她</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
         <is>
           <t>n. （有争议的）话题，议题： a matter that is in dispute between two or more parties
 vi. 发布（期刊等）： to produce and release for distribution in printed form
 vi. 流出： to go, come, or flow out</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>focused on economic and political issues  重点关注经济和政治话题
 plans to issue a monthly newsletter  计划发布新闻月刊
 strange sound issued from the abandoned house  废弃房中传来的奇怪声音</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>jabber</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>vi. 快而不清楚地说： to talk rapidly, indistinctly, or unintelligibly</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>monkeys jabbering at each other in their cages  在笼子里唧唧歪歪的猴子</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3416,17 +3404,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>jabber</t>
+          <t>jaded</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vi. 快而不清楚地说： to talk rapidly, indistinctly, or unintelligibly</t>
+          <t>adj. 疲惫的： depleted in strength, energy, or freshness
+adj. 厌倦的，没兴趣没热情的： having one's patience, interest, or pleasure exhausted</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>monkeys jabbering at each other in their cages  在笼子里唧唧歪歪的猴子</t>
+          <t>After that long bar exam, I'm too jaded for anything but a nap.  律师资格考试结束后，我累得只想睡觉
+Even jaded sci-fi fans are finding this new space adventure fresh and exciting.   即使是见多识广、口味很挑的科幻小说忠粉也觉得这次的太空探险非常新鲜有趣</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3438,19 +3428,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jaded</t>
+          <t>jargon</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 疲惫的： depleted in strength, energy, or freshness
-adj. 厌倦的，没兴趣没热情的： having one's patience, interest, or pleasure exhausted</t>
+          <t>n. 行业术语： the specialized or technical language of a trade, profession, or similar group</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>After that long bar exam, I'm too jaded for anything but a nap.  律师资格考试结束后，我累得只想睡觉
-Even jaded sci-fi fans are finding this new space adventure fresh and exciting.   即使是见多识广、口味很挑的科幻小说忠粉也觉得这次的太空探险非常新鲜有趣</t>
+          <t>medical jargon that the layman cannot understand  外行不理解的医学术语</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3462,17 +3450,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jargon</t>
+          <t>jarring</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 行业术语： the specialized or technical language of a trade, profession, or similar group</t>
+          <t>adj. 刺耳的： harsh or discordant
+adj. 震惊的： causing a strong emotional reaction because of unexpectedness</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>medical jargon that the layman cannot understand  外行不理解的医学术语</t>
+          <t>the final chord of that song is too jarring for me  那首歌最后的合声部分太刺耳了
+the jarring news that major financial institutions were on the verge of collapse  有消息称主要的几个金融机构处于倒闭的边缘，真是让人震惊</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3484,19 +3474,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>jarring</t>
+          <t>jaundice</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 刺耳的： harsh or discordant
-adj. 震惊的： causing a strong emotional reaction because of unexpectedness</t>
+          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>the final chord of that song is too jarring for me  那首歌最后的合声部分太刺耳了
-the jarring news that major financial institutions were on the verge of collapse  有消息称主要的几个金融机构处于倒闭的边缘，真是让人震惊</t>
+          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3508,17 +3496,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jaundice</t>
+          <t>jaunty</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
+          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
+          <t>a jaunty stroll  轻快的散步</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3530,17 +3518,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jaunty</t>
+          <t>jape</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
+          <t>adj. 无趣乏味的： not interesting; dull</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>a jaunty stroll  轻快的散步</t>
+          <t>jejune lectures  无聊的讲座</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3552,17 +3540,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jape</t>
+          <t>jest</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 无趣乏味的： not interesting; dull</t>
+          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>jejune lectures  无聊的讲座</t>
+          <t>spoken in jest  戏谑地说</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3574,17 +3562,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jest</t>
+          <t>jeopardy</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
+          <t>n. 危险： risk of loss or injury; peril or danger</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>spoken in jest  戏谑地说</t>
+          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3596,17 +3584,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jeopardy</t>
+          <t>jettison</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 危险： risk of loss or injury; peril or danger</t>
+          <t>vt. 丢弃，投弃：to cast overboard or off</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
+          <t>a ship jettisoning wastes  投弃废物的船</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3618,17 +3606,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jettison</t>
+          <t>jibe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vt. 丢弃，投弃：to cast overboard or off</t>
+          <t>vi. 意见一致： to be in accord: agree</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>a ship jettisoning wastes  投弃废物的船</t>
+          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3640,17 +3628,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>jibe</t>
+          <t>jingoist</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>vi. 意见一致： to be in accord: agree</t>
+          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
+          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3662,17 +3650,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jingoist</t>
+          <t>jitters</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
+          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
+          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3684,17 +3672,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>jitters</t>
+          <t>jocular</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
+          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
+          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3706,17 +3694,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jocular</t>
+          <t>jocund</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
+          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
+          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3728,17 +3716,18 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>jocund</t>
+          <t>jog</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
+          <t>n. 慢跑： a movement, pace, or instance of jogging (as for exercise)
+vi. 唤起： to rouse or stimulate</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
+          <t>an old photo that might jog your memory  一张也许会唤起你回忆的老照片</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3750,18 +3739,18 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>jolt</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 慢跑： a movement, pace, or instance of jogging (as for exercise)
-vi. 唤起： to rouse or stimulate</t>
+          <t>vi. 突然移动： to move or dislodge with a sudden, hard blow
+v. 惊吓： to cause an unpleasant surprise for</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>an old photo that might jog your memory  一张也许会唤起你回忆的老照片</t>
+          <t>The sneak terrorist attack jolted the country out of its indolence and indifference.   偷偷摸摸 的 恐怖分子将该国从懒惰和冷漠无情中惊醒</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3773,18 +3762,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jolt</t>
+          <t>jot</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>vi. 突然移动： to move or dislodge with a sudden, hard blow
-v. 惊吓： to cause an unpleasant surprise for</t>
+          <t>vt .简要记录： to write briefly or hurriedly</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>The sneak terrorist attack jolted the country out of its indolence and indifference.   偷偷摸摸 的 恐怖分子将该国从懒惰和冷漠无情中惊醒</t>
+          <t>jot down an address  简要地记下地址</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3796,19 +3784,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jot</t>
+          <t>jovial</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>vt .简要记录： to write briefly or hurriedly</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>jot down an address  简要地记下地址</t>
-        </is>
-      </c>
+          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and conviviality</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3818,15 +3802,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>jovial</t>
+          <t>jubilant</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and conviviality</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>adj. 喜悦的： exultingly joyful</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3836,17 +3824,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jubilant</t>
+          <t>judicious</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 喜悦的： exultingly joyful</t>
+          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
+          <t>a judicious choice  明智的抉择</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3858,17 +3846,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>judicious</t>
+          <t>juggernaut</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
+          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>a judicious choice  明智的抉择</t>
+          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3880,43 +3868,21 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>juggernaut</t>
+          <t>ken</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>ken</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>n. 视野范围： the range of vision
 vt. 知道、了解（人或物）： to know (a person or thing)</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>abstract words that are beyond the ken of children  那些孩子们不能理解的抽象字词</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_1.xlsx
+++ b/result/生词本导入模版_1.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,41 +434,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>impugn</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>v. 责难，攻击抨击： to attack as false or questionable; challenge in argument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>impugn a political opponent's character  就政治对手的人品发难</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>impuissance</t>
+          <t>impugn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n. 无权，虚弱： lack of power or effectivenes</t>
+          <t>v. 责难，攻击抨击： to attack as false or questionable; challenge in argument</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>In spite of their impuissance the group remains highly active.  尽管手中无权，但这个组织仍然十分活跃</t>
+          <t>impugn a political opponent's character  就政治对手的人品发难</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,43 +480,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>impuissance</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n. 无权，虚弱： lack of power or effectivenes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In spite of their impuissance the group remains highly active.  尽管手中无权，但这个组织仍然十分活跃</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>inadvertent</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 偶然发生的： happening by chance
 adj. 疏忽的，不留意的： marked by unintentional lack of care</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>an inadvertent encounter with a rattlesnake  偶遇响尾蛇
 The military has said it was an inadvertent error.   军方表示这是个疏忽大意的错误</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>inalienable</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>adj.不可剥夺的，不能让与的： cannot be transferred to another or others</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>inalienable rights of the citizen  公民不可予夺的权利</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -514,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>inane</t>
+          <t>inalienable</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 空洞的： lacking significance, meaning, or point</t>
+          <t>adj.不可剥夺的，不能让与的： cannot be transferred to another or others</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inane comments  空洞的评论</t>
+          <t>inalienable rights of the citizen  公民不可予夺的权利</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,17 +548,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>inanimate</t>
+          <t>inane</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
+          <t>adj. 空洞的： lacking significance, meaning, or point</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
+          <t>inane comments  空洞的评论</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -558,67 +570,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>inanimate</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. 无生命的： not having the qualities associated with active, living organisms</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>He thinks that inanimate objects have a life of their own.  他认为无生命的事物其实也是有生命的</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>inaugurate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>vt. 使就职： to induct into an office by a formal ceremony
 vt. 开始： to cause to begin, especially officially or formally</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>A new leader will be inaugurated soon.   新的领导即将就职
 inaugurate a new immigration policy  实施新的移民政策</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>incandescent</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. 明亮灿烂的： strikingly bright, radiant, or clear
 adj. 热情饱满的： characterized by glowing zeal</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>incandescent light bulbs  明亮的灯泡
 It makes me incandescent with fury.   它让我愤怒不已</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>incantation</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -628,91 +640,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>incantation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n. 咒语： a spoken word or set of words believed to have magic power</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hovering over the sick child, the witch doctor muttered mysterious incantations.  巫 医 在 生病 的 小孩 子身边走来走去，嘴里念着神秘的咒语</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>incarnate</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>adj. 化身的，人体化的： invested with bodily nature and form
 v. （思想、理论的）具化，体现： to constitute an embodiment or type of</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>He referred to her as devil incarnate.   他把她视作恶魔的化身
 the general view that Hitler incarnated extreme egotism  通常认为希特勒代表了极端的以自我为中心</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>incendiary</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 煽动者： a person who stirs up public feelings especially of discontent
 adj. 煽动性的： tending to inflame</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>behind-the-scenes incendiaries who were intending to overthrow the government  企图推翻政府的幕后煽动者
 an incendiary speech  煽动性的演说</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>incense</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 芳香： a sweet or pleasant smell
 vt. 激怒： to cause to be extremely angry</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the heavenly incense of spring flowers  春天花朵发出的美妙芳香
 This proposal will certainly incense female activists.  这个提案肯定会激怒女权主义者</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>inception</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>n. 开端，开始： an act, process, or instance of beginning</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -722,17 +734,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>incessant</t>
+          <t>inception</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 无间断的：continuing or following without interruption</t>
+          <t>n. 开端，开始： an act, process, or instance of beginning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
+          <t>This seemed like a good program at its inception, but it isn't working out as planned.  一 开 始 这 像 是 个不错的项目，但是它没有按照我们的预期发展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,68 +756,68 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>incessant</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adj. 无间断的：continuing or following without interruption</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The incessant noise from an outside repair crew was a real distraction during the test.   窗 外 维 修 工 发 出的持续不断的噪音着实让人在考试里分心</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>inch</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>n. 少量，很短的距离： a very small distance or degree
 v. 慢慢移动： to move or cause to move slowly or by small degrees</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>give them aninch, and they'll take a mile  得寸进尺
 Inch by inch, we're making progress toward ourfund-raising goal.   我们在慢慢地接近筹款的目标
 The car inched carefully across the snow-covered bridge.   汽车慢慢地通过被大雪覆盖的桥梁</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>inchoate</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>adj. 新生的： in an initial or early stage
 adj. 未完全成型的： imperfectly formed or developed</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>inchoate feelings of affection for a man  刚刚产生的好感
 a vague, inchoate notion  模糊而不成形的想法</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>incinerate</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -815,17 +827,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>incipient</t>
+          <t>incinerate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
+          <t>vi. 烧成灰烬： to cause to burn to ashes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
+          <t>The government is trying to stop farmers incinerating their own waste.  政府开始阻止农民们焚烧垃圾的行为</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,17 +849,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>incite</t>
+          <t>incipient</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to provoke and urge on</t>
+          <t>adj. 起初的，初现的： beginning to come into being or to become apparent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inciting workers to strike  煽动工人罢工</t>
+          <t>an incipient economic recovery  刚刚出现的经济复苏</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,17 +871,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>inclement</t>
+          <t>incite</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. （天气等）恶劣的： lacking mildness</t>
+          <t>vt. 煽动，激起： to provoke and urge on</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inclement weather conditions  恶劣的气象条件</t>
+          <t>inciting workers to strike  煽动工人罢工</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,17 +893,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>incogitant</t>
+          <t>inclement</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
+          <t>adj. （天气等）恶劣的： lacking mildness</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
+          <t>inclement weather conditions  恶劣的气象条件</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,17 +915,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>incogitant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
+          <t>adj. 考虑不周的，不体谅的： thoughtless; inconsiderate</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Two triangles are incongruent.   两个三角形不全等。</t>
+          <t>an incogitant litterbug  不体谅人的乱扔垃圾者</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,43 +937,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adj. 不一致的： not conforming to the circumstances or requirements of a situation</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Two triangles are incongruent.   两个三角形不全等。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>inconsequential</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 不合逻辑的： not using or following good reasoning
 adj. 不重要的： of no significance</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>an inconsequential line of argument  不合逻辑的论述
 That's an inconsequential problem compared to the other issues.  和其他问题相比，这就是个无关痛痒的小事</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>incontrovertible</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>adj. 无可争议的： not open to question</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>incontrovertible facts  无可非议的事实</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -971,11 +983,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>incorrigible</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>incontrovertible</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 无可争议的： not open to question</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>incontrovertible facts  无可非议的事实</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -985,19 +1005,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>incriminate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>incriminate innocent people  诬陷好人</t>
-        </is>
-      </c>
+          <t>incorrigible</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1007,39 +1019,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>incriminate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>vt. 归罪于： to accuse of a crime or other wrongful act</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>incriminate innocent people  诬陷好人</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>incubate</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 孵化： to cover and warm eggs as the young inside develop
 vt. 帮助，培养，促进： to cause or aid the development of</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>The hen incubated her eggs for two weeks.  母鸡孵蛋两周
 Hopefully, these youthful visits to the museum will incubate an enduring love of art.  我 们 希 望 年 轻 时参观博物馆能够培养他们对于艺术的持久热爱</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>inculpate</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>vt.归罪于： incriminate</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1049,19 +1065,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>incursion</t>
+          <t>inculpate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>n.入侵： a hostile entrance into a territory</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
-        </is>
-      </c>
+          <t>vt.归罪于： incriminate</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1071,43 +1083,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>incursion</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n.入侵： a hostile entrance into a territory</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>homes damaged by the incursion of floodwater  被洪水入侵破坏的房屋</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>indelible</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>adj. （印记等）无法擦除的： impossible to remove, erase, or wash away
 adj. 无法忘怀的： not easily forgotten</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>indelible ink  难以擦拭的墨水
 most indelible experiences  最难以磨灭的经历</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>indemnity</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1117,17 +1129,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>indict</t>
+          <t>indemnity</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
+          <t>n. （损害、伤害等的）保险补偿： compensation for damage, loss, or injury suffered</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
+          <t>The widow now lives on a pension and an indemnity from her late husband's company.   这 个 寡 妇 如 今 依靠社保和前夫公司的保险赔偿过日</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1139,43 +1151,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>indict</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>vt. 起诉，控告： to accuse of wrongdoing; charge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>indict the mayor for fraud and embezzlement.   起诉市长受贿和挪用公款</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>indigenous</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>adj. 土产的，本地的： originating and living or occurring naturally in an area or environment
 adj. 与生俱来的，先天的： being a part of the innermost nature of a person or thing</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>the culture of the indigenous people of that country  那个国家原著民的文化
 The drive to create is indigenous to humanity.   人类创造的动力是与生俱来的</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>indigent</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>adj. 贫穷的： lacking money or material possessions</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1185,17 +1197,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>indispensable</t>
+          <t>indigent</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
+          <t>adj. 贫穷的： lacking money or material possessions</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
+          <t>indigent people who require some outside assistance  需要外来援助的贫苦人民</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1207,17 +1219,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>indoctrinate</t>
+          <t>indispensable</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
+          <t>adj. 必不可少的，不可或缺的： impossible to do without</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
+          <t>She was becoming indispensible to him.   对他而言她逐渐变得不可替代</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1229,17 +1241,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>indolent</t>
+          <t>indoctrinate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
+          <t>vt. 教育，灌输思想： to instruct especially in fundamentals or rudiments</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
+          <t>indoctrinate students with the notion of egalitarianism  向学生灌输平等主义的思想</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1251,43 +1263,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>indolent</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>adj. 懒惰的： averse to activity, effort, or movement</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The sweltering afternoon made us indolent.   炎热的午后使我们懒散不愿行动</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>inducement</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>n. 动机，刺激源： a motive or consideration that leads one to action
 n.劝说，游说： the act of reasoning or pleading with someone to accept a belief or course of action</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>offered an expensive watch as an inducement to ratify the proposal  赠送名贵手表以求计划得到批准
 He gave up smoking only after a prolonged inducement by all the other family members.  在 所 有 家 庭成员坚持不懈的劝说之下，他终于愿意戒烟了</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>indulgent</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>indulgent aristocrats  生活放纵的贵族</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1297,45 +1309,45 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>indulgent</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>adj. （对己）放纵的，（对他人）纵容的： showing, characterized by, or given to indulgence</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>indulgent aristocrats  生活放纵的贵族</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>indurate</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 铁石心肠的，冷酷无情的： having or showing a lack of sympathy or tender feelings
 vt. 使变硬： to become physically firm or solid
 vt. 使习惯于：使习惯于，如艰苦或尴尬之境况： to make able to withstand physical hardship, strain,or exposure</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>an indurate heart that admits no love or mercy  一颗不认可爱或仁慈的冷酷心灵
 Great heat indurates clay.   高温使黏土变硬
 Such a brutal upbringing could only callous his soul and indurate his heart to the suffering of others.   这样一种残暴的培养方式只会让他的灵魂变得麻木，让他的心灵对于他人所受的折磨无动于衷</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>industrious</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1345,17 +1357,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ineffable</t>
+          <t>industrious</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 难以表达的： incapable of being expressed</t>
+          <t>adj. 勤勉的： constantly, regularly, or habitually occupied, diligent</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
+          <t>The industrious PhD spends all his summer holiday in the laboratory.   勤奋的博士整个暑假都在做实验</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1367,17 +1379,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ineluctable</t>
+          <t>ineffable</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
+          <t>adj. 难以表达的： incapable of being expressed</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
+          <t>ineffable ecstasy  无法用语言表达的狂喜</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1389,44 +1401,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>ineluctable</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>adj.无法逃避的，必然的： not to be avoided, changed, or resisted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Although death is an ineluctable fate for any and every individual organism, it lays the foundation of themetabolism that perpetuates the planetary ecosystem.  尽管死亡对于任何单个的有机体而言是不可避免的宿命，但它奠定了能使整个行星生态系统永不衰竭的新陈代谢的基础</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>inept</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>adj.愚笨的，荒谬的： displaying a lack of judgment, sense, or reason
 adj.不恰当的，不合时宜的： not appropriate for a particular occasion or situation
 adj. 不称职的，无能力的： generally incompetent</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>an inept and irresponsible remark on his paper  对他文章的荒谬而不负责任的评论
 a hopelessly inept defense attorney  严重不靠谱的辩护律师</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>inert</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>inert ingredients in drugs  药品中的惰性成分</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1436,17 +1448,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>inevitable</t>
+          <t>inert</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
+          <t>adj. （人）懒惰缺乏活力的；（物品）惰性的： sluggish in action or motion; deficient in active properties</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
+          <t>inert ingredients in drugs  药品中的惰性成分</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,17 +1470,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>inexorable</t>
+          <t>inevitable</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
+          <t>adj. 不可避免的，必然的： incapable of being avoided or evaded</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
+          <t>The impact of the scandal on the election was inevitable.  丑闻对于选举的冲击是不可避免的</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,17 +1492,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>infamous</t>
+          <t>inexorable</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
+          <t>adj. 无法劝阻的，不为所动的： not to be persuaded, moved, or stopped</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
+          <t>the seemingly inexorable rise in unemployment  看起来无法阻止其高攀的失业率</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,17 +1514,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>infatuate</t>
+          <t>infamous</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
+          <t>adj. 臭名昭著的： having an extremely and deservedly bad reputation</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
+          <t>an infamous city for smuggling and prostitution  因走私而和卖淫而臭名昭著的城市</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,43 +1536,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>infatuate</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>vt. 使迷恋： to inspire with unreasoning love or attachment</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>a naïve girl infatuated by cajolery  被甜言蜜语冲昏头脑的天真女孩</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>inferno</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>n. 大火： an intense fire
 n. 地狱： a place or a state that resembles or suggests hell</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A raging inferno posed a serious threat to the downwind villages.  肆虐的大火给下风向的村庄带来了严重的威胁
 the inferno of war  地狱般的战场</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>infiltrate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1570,17 +1582,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>infinite</t>
+          <t>infiltrate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
+          <t>vt. 秘密潜入： to enter or take up positions in gradually or surreptitiously, as for purposes ofespionage or takeover</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the idea of an infinite universe  无限宇宙的概念</t>
+          <t>The intelligence staff had been infiltrated by spies.   情报工作人员已经被间谍渗透了</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1592,17 +1604,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>infirm</t>
+          <t>infinite</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>adj. 虚弱的： weak in body, especially from old age or disease</t>
+          <t>adj. 无尽的，无限的： having no boundaries or limits</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫</t>
+          <t>the idea of an infinite universe  无限宇宙的概念</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1614,67 +1626,67 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>infirm</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adj. 虚弱的： weak in body, especially from old age or disease</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>her aging, infirm husband  她上了年纪、身体虚弱的丈夫</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>inflame</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>v. 点燃： to set on fire
 v. 使加剧：to make more violent</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A carelessly tossed cigarette inflamed the papers in the trash can.  一只被随意丢弃的香烟点燃了垃圾桶中的纸
 Retaliation served only to inflame the feud.  冤冤相报何时了</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>infelicitous</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>adj. 不愉快的，不幸的： not happy; unfortunate
 adj. 不适当的，不合时宜的： not appropriate or well-timed</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>an infelicitous moment  不幸的时刻
 made a very infelicitous remark  做出极不恰当的评价</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>influx</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. 涌入： a coming in</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1684,43 +1696,43 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>influx</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n. 涌入： a coming in</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>They anticipated an influx of tourists next month.   他们预期下个月会有大批游客涌入</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>infuse</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>vt. 灌输，使…充满： to fill or cause to be filled with something
 vt. 鼓舞： inspire, animate</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>New members infused enthusiasm into the club.   新队员为俱乐部注入了激情
 a sense of purpose that infuses scientific researchers  给科学研究者打鸡血一般的使命感</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>infuriate</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>vt. 激怒： to make furious</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1730,17 +1742,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ingenious</t>
+          <t>infuriate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
+          <t>vt. 激怒： to make furious</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
+          <t>be infuriated by the deliberate insults  被蓄意的中伤激怒</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1752,17 +1764,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ingenuity</t>
+          <t>ingenious</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 独创性，创新性： inventive skill or imagination</t>
+          <t>adj. 聪明的，有创造才能的： marked by originality, resourcefulness, and cleverness in conceptionor execution</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
+          <t>Ingenious designers soon came up with a solution to the battery problem.   聪明的设计者们很快便提出了电池问题的解决方案</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1774,43 +1786,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. 独创性，创新性： inventive skill or imagination</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>There is little ingenuity in his articles.   他的文章鲜有独创性</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>ingenuous</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 天真淳朴的： lacking in cunning, guile, or worldliness
 adj. 坦白的： openly straightforward or frank</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Photographs captured the ingenuous smiles of young children at play.  摄影家捕捉到了演出中孩子们天真无邪的笑脸
 her ingenuous thirst for knowledge  她对知识毫不掩饰的渴望</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ingest</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1820,17 +1832,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ingrained</t>
+          <t>ingest</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
+          <t>vt. 摄入，咽下： to take into the body by the mouth for digestion or absorption</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
+          <t>claims that the average person ingests considerably more calories than is necessary or desirable  宣称每个人平均摄取的卡路里大大超出了所需或者适当的范围</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1842,43 +1854,43 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>ingrained</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 本质的，根深蒂固的： forming a part of the essence or inmost being; firmly established</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ingrained prejudice against foreigners  对外国人根深蒂固的偏见</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>ingratiating</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>adj. 讨人喜欢的： capable of winning favor
 adj. 逢迎的，意在奉承的： intended or adopted in order to gain favor</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>They adopted the orphan who had a most ingratiating smile.  他们收养了那名有着最惹人喜欢的笑容的孤儿
 an repulsive ingratiating smile  令人反感的阿谀奉承的微笑</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>inherent</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>a disposition inherent in human nature  人性内在的倾向</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1888,43 +1900,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>inherent</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. 内在的，本质的： involved in the constitution or essential character of something</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>a disposition inherent in human nature  人性内在的倾向</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>inimical</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>adj. 带有敌意的： reflecting or indicating hostility
 adj. 危及某人利益的，不利的： opposed to one's interests</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">a cold, inimical voice  冰冷而不友好的声音
 Laws were designed to enhance national security but some regard as inimical to cherished freedoms.  </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>inimitable</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>her own inimitable style  她特立独行的作风</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1934,17 +1946,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>iniquity</t>
+          <t>inimitable</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. 邪恶，不公正： gross immorality or injustice</t>
+          <t>adj. 无法仿效的，独特的： not capable of being imitated</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
+          <t>her own inimitable style  她特立独行的作风</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1956,90 +1968,90 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>iniquity</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>n. 邪恶，不公正： gross immorality or injustice</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The use of illegal narcotics is not only a destroyer of personal health but also an iniquity that underminesour society.   非法的毒品不仅仅摧残着个人健康，还是一颗危害社会的毒瘤</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>initiate</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>vt. 创始，发动促进： to cause or facilitate the beginning of
 n. 刚入门的新手： a person who is undergoing or has undergone an initiation</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>a chain reaction initiated by UV irradiation  紫外光激发引起的连锁反应</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>inkling</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>n. 轻微暗示，小提示： a slight indication or suggestion
 n. 略知： a slight knowledge or vague notion</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>They hadn't given us an inkling of what was going to happen.  他们不给我们任何暗示将会发生什么
 not have even the faintest inkling of what the project was all about  对这个项目与什么有关毫不知情</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>innocuous</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>adj. 无害的： producing no injury
 adj. 乏味的，不会引起敌意的： not likely to give offense or to arouse strong feelings or hostility</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>The government enacted a more strict regulation on innocuous preservatives.   政府对无害防腐剂制定了更为严格的规定
 He made an innocuous remark to avoid conflict.  为了避免冲突，他做了一个中庸的评价</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>innovative</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>adj. 创新性的： characterized by, tending to, or introducing innovations</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>an innovative macro-economic strategy  创新性的宏观经济战略</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2049,17 +2061,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>inquisitive</t>
+          <t>innovative</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
+          <t>adj. 创新性的： characterized by, tending to, or introducing innovations</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
+          <t>an innovative macro-economic strategy  创新性的宏观经济战略</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2071,90 +2083,90 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>inquisitive</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 过分好奇的： inordinately or improperly curious about the affairs of others</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>big sunglasses to frustrate inquisitive journalists  让狗仔队企图无法得逞的大墨镜</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>insensible</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 无知觉的： having lost consciousness, especially temporarily
 adj. 漠不关心的： not emotionally responsive
 adj. 粗俗的，没品味的： lacking in refinement or good taste</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>The security guard was knocked insensible by a sudden blow.   保安被突如其来的一击敲晕了
 insensible to workers’ requests  对工人的要求无动于衷
 She married an insensible brute upon whom the niceties of life were completely lost.  她嫁给了一个毫无品味的凡夫俗子，从此她的生活再无任何情趣</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>insensitive</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>adj. 缺乏机智圆滑的，缺乏社交技巧的： lacking tact
 adj. 不敏感的，麻木的： not responsive or susceptible</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>so insensitive as to laugh at someone in pain  如此缺乏社交技巧以至于嘲笑处于悲痛中的人
 insensitive to either criticism or commendation  对批评和表扬都不在乎</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>insentient</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>adj. 无感觉，无知觉的： lacking perception, consciousness, or animation
 adj. 一知半解的，略懂的： not having or showing a deep understanding of something</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>He refused to believe that the universe as we know it evolved from the random interactions of insentientparticles of matter.  他拒绝相信我们所知的宇宙是经由无生命的粒子间的相互作用演化而来的</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>insight</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>n. 深刻的理解： an instance of apprehending the true nature of a thing, especially through intuitiveunderstanding</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>an insight into the global-scale environmental problems  对于全球性环境问题的深刻理解</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2166,43 +2178,43 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>insight</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n. 深刻的理解： an instance of apprehending the true nature of a thing, especially through intuitiveunderstanding</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>an insight into the global-scale environmental problems  对于全球性环境问题的深刻理解</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>insipid</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. （食品）清淡无味的： lacking flavor or zest; not tasty
 adj. 平淡的，无聊的： lacking in qualities that interest, stimulate, or challenge</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>a rather insipid soup  味道清淡的汤
 an insipid story of the prince and the princess  一个关于王子和公主的无聊故事</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>insolent</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2212,17 +2224,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>insouciant</t>
+          <t>insolent</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
+          <t>adj. 粗野的，无礼的： audaciously rude or disrespectful</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>an insouciant shrug  无所谓地耸耸肩</t>
+          <t>an insolent child with no respect or regard for anyone  对他人不敬的无礼的小孩</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2234,17 +2246,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>instate</t>
+          <t>insouciant</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 任命： to set or establish in a rank or office</t>
+          <t>adj. 无忧虑的，不在乎的： free from concern, worry, or anxiety</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
+          <t>an insouciant shrug  无所谓地耸耸肩</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2256,17 +2268,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>instigate</t>
+          <t>instate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
+          <t>vt. 任命： to set or establish in a rank or office</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
+          <t>The new Secretary of the Treasury was instated on Monday.  新的财政部长于星期一被任命</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2278,67 +2290,67 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>instigate</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>vt. 煽动，激起： to goad or urge forward; to stir up</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>This incident is instigated by a small group of people with ulterior motives.  此次事件是被少数别有用心的人煽动起来的</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>instill</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>v. 慢慢滴入： to cause to enter drop by drop
 v. 灌输： to impart gradually</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>instill medication into the infected eye  将药物滴入患者受感染的眼中
 instill a sense of responsibility to the young  向年轻人灌输一种责任感</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>institute</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>vt. 创立，制定： to establish, organize, and set in operation
 n. 机构： an organization for the promotion of a cause</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>institute a new department  创建一个新的部门
 a research institute  研究机构</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>insubordinate</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>adj. 不服从权威的： not submissiveto authority</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2348,17 +2360,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>insular</t>
+          <t>insubordinate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
+          <t>adj. 不服从权威的： not submissiveto authority</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
+          <t>Insubordinate soldiers are court-martialed.  抗命的士兵被送上了军事法庭</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2370,17 +2382,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>insulate</t>
+          <t>insular</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
+          <t>adj. （观念、想法等）孤立狭隘的： being, having, or reflecting a narrow provincial viewpoint</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
+          <t>the insular thinking of peasant communities  农民阶级的狭隘思想</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2392,17 +2404,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>insurgent</t>
+          <t>insulate</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
+          <t>vt. 使绝缘，使隔离： to place in a detached situation</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
+          <t>greenhouse gas that insulates ground infrared radiation  能阻碍地表红外辐射的温室气体</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2414,17 +2426,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>intangible</t>
+          <t>insurgent</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
+          <t>n. 叛乱分子： one who breaks with or opposes constituted authority or the established order</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>intangible value of a good reputation  良好声誉的无形价值</t>
+          <t xml:space="preserve">Insurgents armed with assault rifles and grenades ambushed a US convoy, resulting in heavy casualties.  </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2436,43 +2448,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>intangible</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 无法感知的，无形的： incapable of being perceived by the senses</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>intangible value of a good reputation  良好声誉的无形价值</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>integral</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 构成整体所必需的： essential to completeness
 adj. 完整的： not lacking any part or member that properly belongs to it</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>an integral part of the undergraduate curriculum  本科生课程的必修部分
 the belief that athletics are essential to an integral life  坚信运动是完整的人生所不可或缺的一部分</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>integrity</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2482,17 +2494,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>intelligible</t>
+          <t>integrity</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 可理解的： capable of being understood</t>
+          <t>n. 正直： steadfast adherence to a strict moral or ethical code, devotion to telling the truth</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
+          <t>After a thorough investigation into “Climategate”, the panel concluded that the integrity of scientificcommunity is still sound.   经过对“气候门事件”的彻底调查，专家组认为学术界的信誉和道德仍然是值得信赖的</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2504,17 +2516,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>intemperate</t>
+          <t>intelligible</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
+          <t>adj. 可理解的： capable of being understood</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
+          <t>military codenames intelligible only to those high-rank commanding officers  只有高级指挥官才能理解的军事暗号</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2526,17 +2538,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>intensify</t>
+          <t>intemperate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vt. 加强，激化： to make intense or more intensive</t>
+          <t>adj. 无节制的，极端的，不温和的： not temperate or moderate</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
+          <t>The tone of the article is very intemperate.  文章的论调很极端</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2548,17 +2560,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>inter</t>
+          <t>intensify</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vt. 埋葬： to place in a grave or tomb</t>
+          <t>vt. 加强，激化： to make intense or more intensive</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
+          <t>Both companies intensified their efforts to win the contract.   为了获得这份合同，两家公司都加大了投入</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2570,17 +2582,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>intercessor</t>
+          <t>inter</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 调停者： one that mediates</t>
+          <t>vt. 埋葬： to place in a grave or tomb</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
+          <t>The infamous terrorist leader Bin Laden was interred at sea.  臭名昭著的恐怖分子本拉登被葬于海中</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2592,17 +2604,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>interdict</t>
+          <t>intercessor</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vt. 禁止： to forbid in a usually formal or authoritative manner</t>
+          <t>n. 调停者： one that mediates</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的</t>
+          <t>attend the meeting as the intercessor  作为调停人出席会议</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2614,43 +2626,43 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>interdict</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>vt. 禁止： to forbid in a usually formal or authoritative manner</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Though not interdicted by law, such an action is morally wrong.   尽管这种行为不被法律所禁止，但是道德上来说是不对的</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>interim</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n. 中间过渡时期，间隔： an interval of time between one event, process, or period and another
 adj. 暂时的： serving in a position for the time being</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Richard Wagner’s operas usually require an interim of more than 30 minutes for performers to have abreak.  理查德·瓦格纳的歌剧通常需要长达 30 多分钟的幕间休息时间以供演员调整
 an interim government to maintain social stability  维持社会稳定的临时政府</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>interlock</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2660,17 +2672,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>interminable</t>
+          <t>interlock</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 无尽头的： having or seeming to have no end</t>
+          <t>vi. 连锁： to become united or joined closely, as by hooking or dovetailing</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
+          <t>The branches of the trees interlock to form a natural archway.   树枝相互缠绕在一起，形成了天然的拱门</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2682,43 +2694,43 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>interminable</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>adj. 无尽头的： having or seeming to have no end</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A large audience fell asleep during the interminable sermon.  许多观众都在冗长的布道演说上睡着了</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>intermittent</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 间歇的，断断续续的： coming and going at intervals, not continuous
 adj. 不定期的： lacking in steadiness or regularity of occurrence</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>intermittent rain in June  六月里断断续续的梅雨
 The husband’s intermittent employment put the family in a difficult position financially.   丈 夫 不 稳 定 的 工作使得全家陷入了经济上的困境</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>interregnum</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>n. 过渡期： break in continuity</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2728,17 +2740,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>interrogate</t>
+          <t>interregnum</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vt. 质问，审问： to question formally and systematically</t>
+          <t>n. 过渡期： break in continuity</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
+          <t>The democratic regime proved to be a short-lived interregnum between dictatorships.   这 个 民 主 政 权 被证明只不过是两个独裁政权之间的短暂过渡罢了</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2750,10 +2762,32 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>interrogate</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>vt. 质问，审问： to question formally and systematically</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>interrogate the prisoner of war for valuable intelligence  审问战俘以获取有价值的情报</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>intimate</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>adj. 有紧密联系的，亲密无间的： marked by very close association, contact, or familiarity
 adj. 不为人知的： not known or meant to be known by the general populace
@@ -2761,7 +2795,7 @@
 v. 迂回地交流，间接地沟通： to communicate delicately and indirectly</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>intimate friends since childhood  孩童时期以来的密友
 They broke up after she shared intimate information with all 500 of her closest friends.   在 她 把 那 些 不 为人知的消息告诉了她 500 个朋友之后，他们分手了
@@ -2769,28 +2803,6 @@
 intimate a wish to leave  暗示想离开</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>intimidate</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>vt. 威吓： to make timid or fearful, frighten</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2800,15 +2812,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>intoxicant</t>
+          <t>intimidate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>vt. 威吓： to make timid or fearful, frighten</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>refused to be intimidated by the manager  对经理的恐吓不为所动</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2818,19 +2834,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>intransigent</t>
+          <t>intoxicant</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>an intransigent attitude  不妥协的态度</t>
-        </is>
-      </c>
+          <t>n. 使人陶醉的东西（尤指酒精饮料）： an agent that intoxicates, especially an alcoholic beverage</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2840,17 +2852,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>intrepid</t>
+          <t>intransigent</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
+          <t>adj. 不妥协的，固执的： characterized by refusal to compromise or to abandon an extreme position</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>an intrepid explorer  无畏的探险家</t>
+          <t>an intransigent attitude  不妥协的态度</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2862,43 +2874,43 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>intrepid</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>adj. 无畏的： characterized by resolute fearlessness, fortitude, and endurance</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>an intrepid explorer  无畏的探险家</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>intrigue</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>n. 阴谋： a secret plan for accomplishing evil or unlawful ends
 vt. 激起…的兴趣： to arouse the interest, desire, or curiosity of</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>The intrigue was quickly discovered, and the would-be assassins were arrested.   随着阴谋的迅速识破，未得手的刺客被逮捕了
 The children are apparently intrigued by the tale.   孩子们很明显被这个传奇故事吸引了</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>the intrinsic worth of a gem  宝石的内在价值</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2908,17 +2920,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>intuitive</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 直觉的： knowing or perceiving by intuition</t>
+          <t>adj. 固有的，内在的： of or relating to the essential nature of a thing</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
+          <t>the intrinsic worth of a gem  宝石的内在价值</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2930,17 +2942,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>inundate</t>
+          <t>intuitive</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vt. 淹没： to cover with or as if with flood</t>
+          <t>adj. 直觉的： knowing or perceiving by intuition</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
+          <t>The twins have an intuitive awareness of each other's feelings.   这对双胞胎天生就能感知彼此的感受</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2952,17 +2964,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>inure</t>
+          <t>inundate</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable</t>
+          <t>vt. 淹没： to cover with or as if with flood</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>children inured to violence  习惯了暴力的孩子们</t>
+          <t>inundated with trash e-mails  被垃圾邮件所淹没</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2974,17 +2986,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>invective</t>
+          <t>inure</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
+          <t>vt. 使习惯接受不好的东西： to accustom to accept something undesirable</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
+          <t>children inured to violence  习惯了暴力的孩子们</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2996,17 +3008,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>inveigh</t>
+          <t>invective</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
+          <t>adj. 侮辱性的： of, relating to, or characterized by insult or abuse</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
+          <t>invective comments on female activists  对女权主义者的侮辱性评论</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3018,17 +3030,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>inveigle</t>
+          <t>inveigh</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
+          <t>vi. 激烈抗议，表示强烈不满： to protest or complain bitterly or vehemently</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
+          <t>inveighed against the bank industry  对银行业表示强烈不满</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3040,43 +3052,43 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>inveigle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>vt. 诱骗： to win over by coaxing, flattery, or artful talk</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>inveigle consumers into buying the item  诱骗顾客购买商品</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>inventory</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 存货清单： a detailed, itemized list, report, or record of things in one's possession, especially aperiodic survey of all goods and materials in stock
 n. （写有要点的）简介： a short statement of the main points</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>The dealership has an unusually large inventory of pre-owned vehicles.   销售商手中有着一份巨大的二手车库存单
 They decided to offer the public an informative inventory of everything that is known about the virus at thistime.  他们决定向公众提供一份极富价值的报告，它涵盖了目前为止关于这种病毒的所有认识</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>inveterate</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. 积习的： firmly established by long persistence</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3086,17 +3098,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>invigorate</t>
+          <t>inveterate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
+          <t>adj. 积习的： firmly established by long persistence</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>news that invigorates the public  给大众打鸡血的新闻</t>
+          <t>the inveterate tendency to overlook the obvious  总是忽视显而易见事物的习惯</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3108,17 +3120,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>invincible</t>
+          <t>invigorate</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
+          <t>vt. 使精神，使强壮，鼓舞激励： to impart vigor, strength, or vitality to</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
+          <t>news that invigorates the public  给大众打鸡血的新闻</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3130,43 +3142,43 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>invincible</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>adj. 不可战胜的，不可超越的： incapable of being conquered, overcome, or subdued</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The soccer team proved to be invincible.   这支球队证明了自己是不可战胜的</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>invoke</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>vt. 实施： to put into effect or operation
 vt. 产生，造成： to be the cause of (a situation, action, or state of mind)</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>New train timetable has been invoked.  新的火车时刻表已经生效
 We should be prepared for the possibility that any solution may invoke another set of problems.   我 们 必须要为这样一种可能做好心理准备：任何解决方案都可能带来一系列新的问题</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>irascible</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
-        </is>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3176,17 +3188,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>irate</t>
+          <t>irascible</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 极其愤怒的： extremely angry</t>
+          <t>adj. 易怒的： marked by hot temper and easily provoked anger</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>an irate taxpayer  极为愤怒的纳税人</t>
+          <t>The new boss is so irascible that several employees have resigned.   由于新老板太容易发飙，许多员工已经递交了辞呈</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3198,17 +3210,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>iridescent</t>
+          <t>irate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
+          <t>adj. 极其愤怒的： extremely angry</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
+          <t>an irate taxpayer  极为愤怒的纳税人</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3220,43 +3232,43 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>iridescent</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>adj. 五颜六色的： displaying a play of lustrous colors like those of the rainbow</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>an iridescent soap bubble  一个五颜六色的肥皂泡</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>irk</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 令人烦恼的事物： something that is a source of irritation
 v. 使烦恼，使厌倦： to be irritating, wearisome, or vexing to</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>One of the prof's major irks is a cell phone that rings during a lecture.   课堂上突然响起的手机铃声是最让教授火大的事情之一
 She irked her friends by chewing her gum loudly during the movie.   她因为看电影时嚼口香糖弄出声响而惹怒了她的朋友们</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>ironclad</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3266,17 +3278,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>irradicable</t>
+          <t>ironclad</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>adj. 不能根除的： impossible to uproot or destroy</t>
+          <t>adj. 非常坚固的，坚不可摧的： so firm or secure as to be unbreakable</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
+          <t>pride on their ironclad fleet  对他们坚不可摧的舰队感到自豪</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3288,17 +3300,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>irreducible</t>
+          <t>irradicable</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
+          <t>adj. 不能根除的： impossible to uproot or destroy</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>irreducible integrals  质数</t>
+          <t>Smoking has become an irradicable bad habit for him.   吸烟已成了他不能根除的恶习</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3310,43 +3322,43 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>irreducible</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>adj. （数）不可约分的： incapable of being factored into polynomials of lower degree with coefficientsin some given field (as the rational numbers) or integral domain (as the integers)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>irreducible integrals  质数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>irrigate</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vt. 灌溉： to supply (dry land) with water by means of ditches, pipes, or streams; water artificially
 vt. 冲洗： to flush (a body part) with a stream of liquid (as in removing a foreign body or medicating)</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>irrigate crops periodically  定期灌溉农作物
 irrigate the wound  冲洗伤口</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>irritate</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vt. 刺激，惹恼： to provoke impatience, anger, or displeasure in</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>His rude interruptions really irritated her.   他粗鲁的打断激怒了她</t>
-        </is>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3356,45 +3368,45 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>irritate</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>vt. 刺激，惹恼： to provoke impatience, anger, or displeasure in</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>His rude interruptions really irritated her.   他粗鲁的打断激怒了她</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. （有争议的）话题，议题： a matter that is in dispute between two or more parties
 vi. 发布（期刊等）： to produce and release for distribution in printed form
 vi. 流出： to go, come, or flow out</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>focused on economic and political issues  重点关注经济和政治话题
 plans to issue a monthly newsletter  计划发布新闻月刊
 strange sound issued from the abandoned house  废弃房中传来的奇怪声音</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>jabber</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>vi. 快而不清楚地说： to talk rapidly, indistinctly, or unintelligibly</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>monkeys jabbering at each other in their cages  在笼子里唧唧歪歪的猴子</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3404,43 +3416,43 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>jabber</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vi. 快而不清楚地说： to talk rapidly, indistinctly, or unintelligibly</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>monkeys jabbering at each other in their cages  在笼子里唧唧歪歪的猴子</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>jaded</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 疲惫的： depleted in strength, energy, or freshness
 adj. 厌倦的，没兴趣没热情的： having one's patience, interest, or pleasure exhausted</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>After that long bar exam, I'm too jaded for anything but a nap.  律师资格考试结束后，我累得只想睡觉
 Even jaded sci-fi fans are finding this new space adventure fresh and exciting.   即使是见多识广、口味很挑的科幻小说忠粉也觉得这次的太空探险非常新鲜有趣</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>jargon</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>n. 行业术语： the specialized or technical language of a trade, profession, or similar group</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>medical jargon that the layman cannot understand  外行不理解的医学术语</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3450,43 +3462,43 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>jargon</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>n. 行业术语： the specialized or technical language of a trade, profession, or similar group</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>medical jargon that the layman cannot understand  外行不理解的医学术语</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>jarring</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 刺耳的： harsh or discordant
 adj. 震惊的： causing a strong emotional reaction because of unexpectedness</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>the final chord of that song is too jarring for me  那首歌最后的合声部分太刺耳了
 the jarring news that major financial institutions were on the verge of collapse  有消息称主要的几个金融机构处于倒闭的边缘，真是让人震惊</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>jaundice</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3496,17 +3508,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jaunty</t>
+          <t>jaundice</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
+          <t>n. （因嫉妒或厌世而产生的）偏见： to affect with the negativity or bitterness of jaundice; bias</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>a jaunty stroll  轻快的散步</t>
+          <t>the jaundice in the eyes of the two feuding neighbors  两个有积怨的邻居之间的偏见</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3518,17 +3530,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jape</t>
+          <t>jaunty</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 无趣乏味的： not interesting; dull</t>
+          <t>adj. 轻快的，活泼的： sprightly in manner or appearance: lively</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>jejune lectures  无聊的讲座</t>
+          <t>a jaunty stroll  轻快的散步</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3540,17 +3552,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jest</t>
+          <t>jape</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
+          <t>adj. 无趣乏味的： not interesting; dull</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>spoken in jest  戏谑地说</t>
+          <t>jejune lectures  无聊的讲座</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3562,17 +3574,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jeopardy</t>
+          <t>jest</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 危险： risk of loss or injury; peril or danger</t>
+          <t>n. 轻浮的态度，戏谑： a frivolous mood or manner</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
+          <t>spoken in jest  戏谑地说</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3584,17 +3596,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jettison</t>
+          <t>jeopardy</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vt. 丢弃，投弃：to cast overboard or off</t>
+          <t>n. 危险： risk of loss or injury; peril or danger</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>a ship jettisoning wastes  投弃废物的船</t>
+          <t>the city's firefighters routinely put their lives in jeopardy  消防队员们早就把生命置之度外了</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3606,17 +3618,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>jibe</t>
+          <t>jettison</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vi. 意见一致： to be in accord: agree</t>
+          <t>vt. 丢弃，投弃：to cast overboard or off</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
+          <t>a ship jettisoning wastes  投弃废物的船</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3628,17 +3640,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>jingoist</t>
+          <t>jibe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
+          <t>vi. 意见一致： to be in accord: agree</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
+          <t>Your figures jibe with mine.   你的数据与我的一致。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3650,17 +3662,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jitters</t>
+          <t>jingoist</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
+          <t>n. 极端爱国激进分子（通常表现为好战的对外政策）： extreme chauvinism or nationalism markedespecially by a belligerent foreign policy</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
+          <t>jingoists who cry for war  叫嚣着鼓吹开战的激进分子</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3672,17 +3684,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>jocular</t>
+          <t>jitters</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
+          <t>n. 紧张，不安： a sense of panic or extreme nervousness</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
+          <t>she suffered pre-wedding jitters  她有婚前恐惧</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3694,17 +3706,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jocund</t>
+          <t>jocular</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
+          <t>adj. 搞笑的，欢乐的： characterized by joking, playful</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
+          <t>a jocular man who could make the most serious people laugh  这个搞笑的人可以使得最严肃的人都开怀大笑</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3716,63 +3728,63 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>jocund</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>adj. 欢快的，高兴的： sprightly and lighthearted in disposition, character, or quality</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>old friends engaged in jocund teasing  老朋友相见，互相打趣调侃</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>jog</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>n. 慢跑： a movement, pace, or instance of jogging (as for exercise)
 vi. 唤起： to rouse or stimulate</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>an old photo that might jog your memory  一张也许会唤起你回忆的老照片</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>jolt</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>vi. 突然移动： to move or dislodge with a sudden, hard blow
 v. 惊吓： to cause an unpleasant surprise for</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The sneak terrorist attack jolted the country out of its indolence and indifference.   偷偷摸摸 的 恐怖分子将该国从懒惰和冷漠无情中惊醒</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>jot</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>vt .简要记录： to write briefly or hurriedly</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>jot down an address  简要地记下地址</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3784,15 +3796,19 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jovial</t>
+          <t>jot</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and conviviality</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>vt .简要记录： to write briefly or hurriedly</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>jot down an address  简要地记下地址</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3802,19 +3818,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>jubilant</t>
+          <t>jovial</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 喜悦的： exultingly joyful</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
-        </is>
-      </c>
+          <t>adj. 愉快的： markedly good-humored especially as evidenced by jollity and conviviality</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3824,17 +3836,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>judicious</t>
+          <t>jubilant</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
+          <t>adj. 喜悦的： exultingly joyful</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>a judicious choice  明智的抉择</t>
+          <t>The nominee delivered a jubilant speech before the cheering crowd.   在欢呼的人群面前，被提名人发表了充满喜悦的演说</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3846,17 +3858,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>juggernaut</t>
+          <t>judicious</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
+          <t>adj. 明智的，慎重的： having or exhibiting sound judgment; prudent</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
+          <t>a judicious choice  明智的抉择</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3868,21 +3880,43 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>juggernaut</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 无法阻挡的力量， 摧毁一切的强大力量： an overwhelming, advancing force that crusheseverything in its path</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>the juggernaut of industrialization  工业化无法阻挡的力量</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>ken</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 视野范围： the range of vision
 vt. 知道、了解（人或物）： to know (a person or thing)</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>abstract words that are beyond the ken of children  那些孩子们不能理解的抽象字词</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
